--- a/output3.xlsx
+++ b/output3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Country Ameco</t>
   </si>
@@ -37,34 +37,58 @@
     <t>UXGS</t>
   </si>
   <si>
+    <t>UMGS.1.0.0.0</t>
+  </si>
+  <si>
+    <t>UXGS.1.0.0.0</t>
+  </si>
+  <si>
     <t>UBGN</t>
   </si>
   <si>
     <t>UBSN</t>
   </si>
   <si>
-    <t>UBGS</t>
+    <t>UBGN.1.0.0.0</t>
+  </si>
+  <si>
+    <t>UBSN.1.0.0.0</t>
+  </si>
+  <si>
+    <t>UIGNR</t>
+  </si>
+  <si>
+    <t>UIGNR.1.0.0.0</t>
   </si>
   <si>
     <t>UIGG</t>
   </si>
   <si>
-    <t>UIGP</t>
-  </si>
-  <si>
-    <t>UIGNR</t>
+    <t>UIGG.1.0.0.0</t>
   </si>
   <si>
     <t>UUNF</t>
   </si>
   <si>
+    <t>UUNF.1.0.0.0</t>
+  </si>
+  <si>
     <t>UUNT</t>
+  </si>
+  <si>
+    <t>UUNT.1.0.0.0</t>
   </si>
   <si>
     <t>UUTT</t>
   </si>
   <si>
+    <t>UUTT.1.0.0.0</t>
+  </si>
+  <si>
     <t>UITT</t>
+  </si>
+  <si>
+    <t>UITT.1.0.0.0</t>
   </si>
   <si>
     <t>Annual</t>
@@ -428,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL13"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>4.981075788899999</v>
@@ -827,10 +851,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>4.960902916</v>
@@ -1018,187 +1042,190 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>-0.3998421299999997</v>
+        <v>4.981075788899999</v>
       </c>
       <c r="F4">
-        <v>-0.4532601539999996</v>
+        <v>5.451440196899999</v>
       </c>
       <c r="G4">
-        <v>-0.4211547399999995</v>
+        <v>5.9447608361</v>
       </c>
       <c r="H4">
-        <v>-0.5288253469999997</v>
+        <v>6.7263981278</v>
       </c>
       <c r="I4">
-        <v>-0.5719963090000002</v>
+        <v>7.556539196</v>
       </c>
       <c r="J4">
-        <v>-0.5030323939999999</v>
+        <v>8.082453742</v>
       </c>
       <c r="K4">
-        <v>-0.743385333</v>
+        <v>9.165210132</v>
       </c>
       <c r="L4">
-        <v>-0.585678294</v>
+        <v>9.414198333</v>
       </c>
       <c r="M4">
-        <v>-0.6023288530000013</v>
+        <v>10.567120864</v>
       </c>
       <c r="N4">
-        <v>-0.4273035099999998</v>
+        <v>12.583756834</v>
       </c>
       <c r="O4">
-        <v>-0.2049862600000001</v>
+        <v>14.148009877</v>
       </c>
       <c r="P4">
-        <v>-0.3554040900000004</v>
+        <v>15.085328057</v>
       </c>
       <c r="Q4">
-        <v>0.23119449</v>
+        <v>16.542505199</v>
       </c>
       <c r="R4">
-        <v>-0.2374976099999984</v>
+        <v>21.041558135</v>
       </c>
       <c r="S4">
-        <v>-1.599140330000001</v>
+        <v>27.909953817</v>
       </c>
       <c r="T4">
-        <v>-1.607610879999999</v>
+        <v>27.215144136</v>
       </c>
       <c r="U4">
-        <v>-2.10995016</v>
+        <v>32.457448525</v>
       </c>
       <c r="V4">
-        <v>-3.32711535</v>
+        <v>35.45531082</v>
       </c>
       <c r="W4">
-        <v>-2.787067130000001</v>
+        <v>36.963215383</v>
       </c>
       <c r="X4">
-        <v>-3.814705509999996</v>
+        <v>43.768114841</v>
       </c>
       <c r="Y4">
-        <v>-4.710443990000002</v>
+        <v>48.498634999</v>
       </c>
       <c r="Z4">
-        <v>-5.094595050000002</v>
+        <v>53.937280509</v>
       </c>
       <c r="AA4">
-        <v>-5.582021320000003</v>
+        <v>62.0093779</v>
       </c>
       <c r="AB4">
-        <v>-4.116045020000001</v>
+        <v>65.91324304</v>
       </c>
       <c r="AC4">
-        <v>-4.371224059999996</v>
+        <v>75.6478851</v>
       </c>
       <c r="AD4">
-        <v>-3.5241629</v>
+        <v>77.58904477999999</v>
       </c>
       <c r="AE4">
-        <v>-1.626940410000003</v>
+        <v>73.02810226</v>
       </c>
       <c r="AF4">
-        <v>-2.430761929999996</v>
+        <v>74.8065326</v>
       </c>
       <c r="AG4">
-        <v>-1.849671880000002</v>
+        <v>84.5054181</v>
       </c>
       <c r="AH4">
-        <v>-2.35807226</v>
+        <v>98.68671118</v>
       </c>
       <c r="AI4">
-        <v>-3.827423089999996</v>
+        <v>101.97709412</v>
       </c>
       <c r="AJ4">
-        <v>0.8315844100000049</v>
+        <v>104.48632792</v>
       </c>
       <c r="AK4">
-        <v>1.848218119999999</v>
+        <v>105.75489489</v>
       </c>
       <c r="AL4">
-        <v>3.396994880000008</v>
+        <v>102.7764532</v>
       </c>
       <c r="AM4">
-        <v>3.782586670000001</v>
+        <v>112.35049105</v>
       </c>
       <c r="AN4">
-        <v>5.594000000000008</v>
+        <v>118.555</v>
       </c>
       <c r="AO4">
-        <v>4.183999999999997</v>
+        <v>124.42</v>
       </c>
       <c r="AP4">
-        <v>5.48299999999999</v>
+        <v>136.643</v>
       </c>
       <c r="AQ4">
-        <v>5.968000000000004</v>
+        <v>140.898</v>
       </c>
       <c r="AR4">
-        <v>7.51100000000001</v>
+        <v>146.776</v>
       </c>
       <c r="AS4">
-        <v>4.429000000000002</v>
+        <v>178.745</v>
       </c>
       <c r="AT4">
-        <v>6.344999999999999</v>
+        <v>179.87</v>
       </c>
       <c r="AU4">
-        <v>13.72300000000001</v>
+        <v>178.27</v>
       </c>
       <c r="AV4">
-        <v>12.72399999999999</v>
+        <v>179.175</v>
       </c>
       <c r="AW4">
-        <v>10.364</v>
+        <v>196.157</v>
       </c>
       <c r="AX4">
-        <v>6.59899999999999</v>
+        <v>217.585</v>
       </c>
       <c r="AY4">
-        <v>7.543999999999983</v>
+        <v>235.141</v>
       </c>
       <c r="AZ4">
-        <v>7.688000000000017</v>
+        <v>253.959</v>
       </c>
       <c r="BA4">
-        <v>-4.421999999999997</v>
+        <v>280.463</v>
       </c>
       <c r="BB4">
-        <v>-0.1269999999999811</v>
+        <v>233.847</v>
       </c>
       <c r="BC4">
-        <v>-2.111999999999995</v>
+        <v>272.554</v>
       </c>
       <c r="BD4">
-        <v>-5.706999999999994</v>
+        <v>307.524</v>
       </c>
       <c r="BE4">
-        <v>-4.920999999999992</v>
+        <v>316.546</v>
       </c>
       <c r="BF4">
-        <v>-2.667000000000002</v>
+        <v>315.988</v>
       </c>
       <c r="BG4">
-        <v>-2.798000000000002</v>
+        <v>329.806</v>
       </c>
       <c r="BH4">
-        <v>1.111000000000018</v>
+        <v>333.443</v>
       </c>
       <c r="BI4">
-        <v>2.133434800000003</v>
+        <v>341.98027742</v>
       </c>
       <c r="BJ4">
-        <v>1.492142800000011</v>
+        <v>364.7192272999999</v>
       </c>
       <c r="BK4">
-        <v>1.677900399999999</v>
+        <v>386.1906626</v>
+      </c>
+      <c r="BL4">
+        <v>407.1760239192643</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1209,187 +1236,190 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>0.3796692571000001</v>
+        <v>4.960902916</v>
       </c>
       <c r="F5">
-        <v>0.4203759751000001</v>
+        <v>5.418556018</v>
       </c>
       <c r="G5">
-        <v>0.5149362799</v>
+        <v>6.038542376000001</v>
       </c>
       <c r="H5">
-        <v>0.4459648032</v>
+        <v>6.643537584</v>
       </c>
       <c r="I5">
-        <v>0.6309859979999999</v>
+        <v>7.615528885</v>
       </c>
       <c r="J5">
-        <v>0.590458057</v>
+        <v>8.169879405</v>
       </c>
       <c r="K5">
-        <v>0.738131976</v>
+        <v>9.159956774999999</v>
       </c>
       <c r="L5">
-        <v>0.8449928020000002</v>
+        <v>9.673512841000001</v>
       </c>
       <c r="M5">
-        <v>0.865916465</v>
+        <v>10.830708476</v>
       </c>
       <c r="N5">
-        <v>0.805148371</v>
+        <v>12.961601695</v>
       </c>
       <c r="O5">
-        <v>1.03596804</v>
+        <v>14.978991657</v>
       </c>
       <c r="P5">
-        <v>1.254228608</v>
+        <v>15.984152575</v>
       </c>
       <c r="Q5">
-        <v>1.192885296</v>
+        <v>17.966584985</v>
       </c>
       <c r="R5">
-        <v>1.3947654</v>
+        <v>22.198825925</v>
       </c>
       <c r="S5">
-        <v>2.429138128</v>
+        <v>28.739951615</v>
       </c>
       <c r="T5">
-        <v>2.116785186</v>
+        <v>27.724318442</v>
       </c>
       <c r="U5">
-        <v>2.912495175</v>
+        <v>33.25999354</v>
       </c>
       <c r="V5">
-        <v>3.330169245</v>
+        <v>35.458364715</v>
       </c>
       <c r="W5">
-        <v>2.378218513000001</v>
+        <v>36.554366766</v>
       </c>
       <c r="X5">
-        <v>2.652810439</v>
+        <v>42.60621977</v>
       </c>
       <c r="Y5">
-        <v>2.541845671000001</v>
+        <v>46.33003668</v>
       </c>
       <c r="Z5">
-        <v>3.734601571000001</v>
+        <v>52.57728703</v>
       </c>
       <c r="AA5">
-        <v>4.513502650000001</v>
+        <v>60.94085923</v>
       </c>
       <c r="AB5">
-        <v>5.337852490000001</v>
+        <v>67.13505051</v>
       </c>
       <c r="AC5">
-        <v>5.864981860000002</v>
+        <v>77.14164290000001</v>
       </c>
       <c r="AD5">
-        <v>5.535621260000001</v>
+        <v>79.60050314</v>
       </c>
       <c r="AE5">
-        <v>5.268799420000001</v>
+        <v>76.66996127</v>
       </c>
       <c r="AF5">
-        <v>5.849090199999999</v>
+        <v>78.22486087</v>
       </c>
       <c r="AG5">
-        <v>6.329289370000001</v>
+        <v>88.98503559</v>
       </c>
       <c r="AH5">
-        <v>6.906803499999999</v>
+        <v>103.23544242</v>
       </c>
       <c r="AI5">
-        <v>8.153445439999999</v>
+        <v>106.30311647</v>
       </c>
       <c r="AJ5">
-        <v>2.406235419999998</v>
+        <v>107.72414775</v>
       </c>
       <c r="AK5">
-        <v>2.848297089999999</v>
+        <v>110.4514101</v>
       </c>
       <c r="AL5">
-        <v>2.735183060000001</v>
+        <v>108.90863114</v>
       </c>
       <c r="AM5">
-        <v>3.731752459999999</v>
+        <v>119.86483018</v>
       </c>
       <c r="AN5">
-        <v>1.736999999999998</v>
+        <v>125.886</v>
       </c>
       <c r="AO5">
-        <v>1.917000000000002</v>
+        <v>130.521</v>
       </c>
       <c r="AP5">
-        <v>2.261000000000003</v>
+        <v>144.387</v>
       </c>
       <c r="AQ5">
-        <v>1.794</v>
+        <v>148.66</v>
       </c>
       <c r="AR5">
-        <v>1.769999999999996</v>
+        <v>156.057</v>
       </c>
       <c r="AS5">
-        <v>2.378</v>
+        <v>185.552</v>
       </c>
       <c r="AT5">
-        <v>2.548999999999999</v>
+        <v>188.764</v>
       </c>
       <c r="AU5">
-        <v>1.417999999999999</v>
+        <v>193.411</v>
       </c>
       <c r="AV5">
-        <v>1.978999999999999</v>
+        <v>193.878</v>
       </c>
       <c r="AW5">
-        <v>3.681000000000004</v>
+        <v>210.202</v>
       </c>
       <c r="AX5">
-        <v>4.82</v>
+        <v>229.004</v>
       </c>
       <c r="AY5">
-        <v>4.634999999999998</v>
+        <v>247.32</v>
       </c>
       <c r="AZ5">
-        <v>5.474000000000004</v>
+        <v>267.121</v>
       </c>
       <c r="BA5">
-        <v>6.135000000000005</v>
+        <v>282.176</v>
       </c>
       <c r="BB5">
-        <v>8.018999999999998</v>
+        <v>241.739</v>
       </c>
       <c r="BC5">
-        <v>8.670999999999992</v>
+        <v>279.113</v>
       </c>
       <c r="BD5">
-        <v>7.668999999999997</v>
+        <v>309.486</v>
       </c>
       <c r="BE5">
-        <v>7.310000000000002</v>
+        <v>318.935</v>
       </c>
       <c r="BF5">
-        <v>7.138999999999996</v>
+        <v>320.46</v>
       </c>
       <c r="BG5">
-        <v>6.469999999999999</v>
+        <v>333.478</v>
       </c>
       <c r="BH5">
-        <v>5.741</v>
+        <v>340.295</v>
       </c>
       <c r="BI5">
-        <v>8.351713579999995</v>
+        <v>352.4654258</v>
       </c>
       <c r="BJ5">
-        <v>10.1855723</v>
+        <v>376.3969424</v>
       </c>
       <c r="BK5">
-        <v>10.6597531</v>
+        <v>398.5283161</v>
+      </c>
+      <c r="BL5">
+        <v>421.2603215408739</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -1400,187 +1430,187 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>-0.02017287289999903</v>
+        <v>-0.3998421299999997</v>
       </c>
       <c r="F6">
-        <v>-0.03288417889999895</v>
+        <v>-0.4532601539999996</v>
       </c>
       <c r="G6">
-        <v>0.09378153990000104</v>
+        <v>-0.4211547399999995</v>
       </c>
       <c r="H6">
-        <v>-0.08286054379999985</v>
+        <v>-0.5288253469999997</v>
       </c>
       <c r="I6">
-        <v>0.05898968899999968</v>
+        <v>-0.5719963090000002</v>
       </c>
       <c r="J6">
-        <v>0.08742566299999943</v>
+        <v>-0.5030323939999999</v>
       </c>
       <c r="K6">
-        <v>-0.005253357000000847</v>
+        <v>-0.743385333</v>
       </c>
       <c r="L6">
-        <v>0.259314508000001</v>
+        <v>-0.585678294</v>
       </c>
       <c r="M6">
-        <v>0.2635876119999985</v>
+        <v>-0.6023288530000013</v>
       </c>
       <c r="N6">
-        <v>0.3778448609999998</v>
+        <v>-0.4273035099999998</v>
       </c>
       <c r="O6">
-        <v>0.8309817800000001</v>
+        <v>-0.2049862600000001</v>
       </c>
       <c r="P6">
-        <v>0.8988245179999996</v>
+        <v>-0.3554040900000004</v>
       </c>
       <c r="Q6">
-        <v>1.424079786</v>
+        <v>0.23119449</v>
       </c>
       <c r="R6">
-        <v>1.157267790000002</v>
+        <v>-0.2374976099999984</v>
       </c>
       <c r="S6">
-        <v>0.8299977979999973</v>
+        <v>-1.599140330000001</v>
       </c>
       <c r="T6">
-        <v>0.509174306000002</v>
+        <v>-1.607610879999999</v>
       </c>
       <c r="U6">
-        <v>0.8025450149999926</v>
+        <v>-2.10995016</v>
       </c>
       <c r="V6">
-        <v>0.00305389500000075</v>
+        <v>-3.32711535</v>
       </c>
       <c r="W6">
-        <v>-0.4088486169999968</v>
+        <v>-2.787067130000001</v>
       </c>
       <c r="X6">
-        <v>-1.161895070999996</v>
+        <v>-3.814705509999996</v>
       </c>
       <c r="Y6">
-        <v>-2.168598318999997</v>
+        <v>-4.710443990000002</v>
       </c>
       <c r="Z6">
-        <v>-1.359993479000003</v>
+        <v>-5.094595050000002</v>
       </c>
       <c r="AA6">
-        <v>-1.068518670000003</v>
+        <v>-5.582021320000003</v>
       </c>
       <c r="AB6">
-        <v>1.221807470000002</v>
+        <v>-4.116045020000001</v>
       </c>
       <c r="AC6">
-        <v>1.493757800000012</v>
+        <v>-4.371224059999996</v>
       </c>
       <c r="AD6">
-        <v>2.011458360000006</v>
+        <v>-3.5241629</v>
       </c>
       <c r="AE6">
-        <v>3.641859010000005</v>
+        <v>-1.626940410000003</v>
       </c>
       <c r="AF6">
-        <v>3.418328270000003</v>
+        <v>-2.430761929999996</v>
       </c>
       <c r="AG6">
-        <v>4.479617489999995</v>
+        <v>-1.849671880000002</v>
       </c>
       <c r="AH6">
-        <v>4.548731239999995</v>
+        <v>-2.35807226</v>
       </c>
       <c r="AI6">
-        <v>4.326022350000002</v>
+        <v>-3.827423089999996</v>
       </c>
       <c r="AJ6">
-        <v>3.237819830000007</v>
+        <v>0.8315844100000049</v>
       </c>
       <c r="AK6">
-        <v>4.696515209999987</v>
+        <v>1.848218119999999</v>
       </c>
       <c r="AL6">
-        <v>6.13217794000002</v>
+        <v>3.396994880000008</v>
       </c>
       <c r="AM6">
-        <v>7.514339129999996</v>
+        <v>3.782586670000001</v>
       </c>
       <c r="AN6">
-        <v>7.331000000000003</v>
+        <v>5.594000000000008</v>
       </c>
       <c r="AO6">
-        <v>6.101000000000013</v>
+        <v>4.183999999999997</v>
       </c>
       <c r="AP6">
-        <v>7.744</v>
+        <v>5.48299999999999</v>
       </c>
       <c r="AQ6">
-        <v>7.762</v>
+        <v>5.968000000000004</v>
       </c>
       <c r="AR6">
-        <v>9.281000000000006</v>
+        <v>7.51100000000001</v>
       </c>
       <c r="AS6">
-        <v>6.807000000000016</v>
+        <v>4.429000000000002</v>
       </c>
       <c r="AT6">
-        <v>8.893999999999977</v>
+        <v>6.344999999999999</v>
       </c>
       <c r="AU6">
-        <v>15.14100000000002</v>
+        <v>13.72300000000001</v>
       </c>
       <c r="AV6">
-        <v>14.70299999999997</v>
+        <v>12.72399999999999</v>
       </c>
       <c r="AW6">
-        <v>14.04499999999999</v>
+        <v>10.364</v>
       </c>
       <c r="AX6">
-        <v>11.41899999999998</v>
+        <v>6.59899999999999</v>
       </c>
       <c r="AY6">
-        <v>12.17899999999997</v>
+        <v>7.543999999999983</v>
       </c>
       <c r="AZ6">
-        <v>13.16200000000003</v>
+        <v>7.688000000000017</v>
       </c>
       <c r="BA6">
-        <v>1.713000000000022</v>
+        <v>-4.421999999999997</v>
       </c>
       <c r="BB6">
-        <v>7.892000000000024</v>
+        <v>-0.1269999999999811</v>
       </c>
       <c r="BC6">
-        <v>6.559000000000026</v>
+        <v>-2.111999999999995</v>
       </c>
       <c r="BD6">
-        <v>1.961999999999989</v>
+        <v>-5.706999999999994</v>
       </c>
       <c r="BE6">
-        <v>2.38900000000001</v>
+        <v>-4.920999999999992</v>
       </c>
       <c r="BF6">
-        <v>4.472000000000037</v>
+        <v>-2.667000000000002</v>
       </c>
       <c r="BG6">
-        <v>3.672000000000025</v>
+        <v>-2.798000000000002</v>
       </c>
       <c r="BH6">
-        <v>6.852000000000032</v>
+        <v>1.111000000000018</v>
       </c>
       <c r="BI6">
-        <v>10.48514838</v>
+        <v>2.133434800000003</v>
       </c>
       <c r="BJ6">
-        <v>11.67771510000006</v>
+        <v>1.492142800000011</v>
       </c>
       <c r="BK6">
-        <v>12.33765349999999</v>
+        <v>1.677900399999999</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -1591,1093 +1621,2612 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0.3796692571000001</v>
+      </c>
+      <c r="F7">
+        <v>0.4203759751000001</v>
+      </c>
+      <c r="G7">
+        <v>0.5149362799</v>
+      </c>
+      <c r="H7">
+        <v>0.4459648032</v>
+      </c>
+      <c r="I7">
+        <v>0.6309859979999999</v>
+      </c>
+      <c r="J7">
+        <v>0.590458057</v>
+      </c>
+      <c r="K7">
+        <v>0.738131976</v>
+      </c>
+      <c r="L7">
+        <v>0.8449928020000002</v>
+      </c>
+      <c r="M7">
+        <v>0.865916465</v>
+      </c>
+      <c r="N7">
+        <v>0.805148371</v>
+      </c>
+      <c r="O7">
+        <v>1.03596804</v>
+      </c>
+      <c r="P7">
+        <v>1.254228608</v>
+      </c>
+      <c r="Q7">
+        <v>1.192885296</v>
+      </c>
+      <c r="R7">
+        <v>1.3947654</v>
+      </c>
+      <c r="S7">
+        <v>2.429138128</v>
+      </c>
+      <c r="T7">
+        <v>2.116785186</v>
+      </c>
+      <c r="U7">
+        <v>2.912495175</v>
+      </c>
+      <c r="V7">
+        <v>3.330169245</v>
+      </c>
+      <c r="W7">
+        <v>2.378218513000001</v>
+      </c>
+      <c r="X7">
+        <v>2.652810439</v>
+      </c>
+      <c r="Y7">
+        <v>2.541845671000001</v>
+      </c>
+      <c r="Z7">
+        <v>3.734601571000001</v>
+      </c>
+      <c r="AA7">
+        <v>4.513502650000001</v>
+      </c>
+      <c r="AB7">
+        <v>5.337852490000001</v>
+      </c>
+      <c r="AC7">
+        <v>5.864981860000002</v>
+      </c>
+      <c r="AD7">
+        <v>5.535621260000001</v>
+      </c>
+      <c r="AE7">
+        <v>5.268799420000001</v>
+      </c>
+      <c r="AF7">
+        <v>5.849090199999999</v>
+      </c>
+      <c r="AG7">
+        <v>6.329289370000001</v>
+      </c>
+      <c r="AH7">
+        <v>6.906803499999999</v>
+      </c>
+      <c r="AI7">
+        <v>8.153445439999999</v>
+      </c>
+      <c r="AJ7">
+        <v>2.406235419999998</v>
+      </c>
+      <c r="AK7">
+        <v>2.848297089999999</v>
+      </c>
+      <c r="AL7">
+        <v>2.735183060000001</v>
+      </c>
+      <c r="AM7">
+        <v>3.731752459999999</v>
+      </c>
+      <c r="AN7">
+        <v>1.736999999999998</v>
+      </c>
+      <c r="AO7">
+        <v>1.917000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>2.261000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>1.794</v>
+      </c>
+      <c r="AR7">
+        <v>1.769999999999996</v>
+      </c>
+      <c r="AS7">
+        <v>2.378</v>
+      </c>
+      <c r="AT7">
+        <v>2.548999999999999</v>
+      </c>
+      <c r="AU7">
+        <v>1.417999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>1.978999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>3.681000000000004</v>
+      </c>
+      <c r="AX7">
+        <v>4.82</v>
+      </c>
+      <c r="AY7">
+        <v>4.634999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>5.474000000000004</v>
+      </c>
+      <c r="BA7">
+        <v>6.135000000000005</v>
+      </c>
+      <c r="BB7">
+        <v>8.018999999999998</v>
+      </c>
+      <c r="BC7">
+        <v>8.670999999999992</v>
+      </c>
+      <c r="BD7">
+        <v>7.668999999999997</v>
+      </c>
+      <c r="BE7">
+        <v>7.310000000000002</v>
+      </c>
+      <c r="BF7">
+        <v>7.138999999999996</v>
+      </c>
+      <c r="BG7">
+        <v>6.469999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>5.741</v>
+      </c>
+      <c r="BI7">
+        <v>8.351713579999995</v>
+      </c>
+      <c r="BJ7">
+        <v>10.1855723</v>
+      </c>
+      <c r="BK7">
+        <v>10.6597531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>-0.3998421299999997</v>
+      </c>
+      <c r="F14">
+        <v>-0.4532601539999996</v>
+      </c>
+      <c r="G14">
+        <v>-0.4211547399999995</v>
+      </c>
+      <c r="H14">
+        <v>-0.5288253469999997</v>
+      </c>
+      <c r="I14">
+        <v>-0.5719963090000002</v>
+      </c>
+      <c r="J14">
+        <v>-0.5030323939999999</v>
+      </c>
+      <c r="K14">
+        <v>-0.743385333</v>
+      </c>
+      <c r="L14">
+        <v>-0.585678294</v>
+      </c>
+      <c r="M14">
+        <v>-0.6023288530000013</v>
+      </c>
+      <c r="N14">
+        <v>-0.4273035099999998</v>
+      </c>
+      <c r="O14">
+        <v>-0.2049862600000001</v>
+      </c>
+      <c r="P14">
+        <v>-0.3554040900000004</v>
+      </c>
+      <c r="Q14">
+        <v>0.23119449</v>
+      </c>
+      <c r="R14">
+        <v>-0.2374976099999984</v>
+      </c>
+      <c r="S14">
+        <v>-1.599140330000001</v>
+      </c>
+      <c r="T14">
+        <v>-1.607610879999999</v>
+      </c>
+      <c r="U14">
+        <v>-2.10995016</v>
+      </c>
+      <c r="V14">
+        <v>-3.32711535</v>
+      </c>
+      <c r="W14">
+        <v>-2.787067130000001</v>
+      </c>
+      <c r="X14">
+        <v>-3.814705509999996</v>
+      </c>
+      <c r="Y14">
+        <v>-4.710443990000002</v>
+      </c>
+      <c r="Z14">
+        <v>-5.094595050000002</v>
+      </c>
+      <c r="AA14">
+        <v>-5.582021320000003</v>
+      </c>
+      <c r="AB14">
+        <v>-4.116045020000001</v>
+      </c>
+      <c r="AC14">
+        <v>-4.371224059999996</v>
+      </c>
+      <c r="AD14">
+        <v>-3.5241629</v>
+      </c>
+      <c r="AE14">
+        <v>-1.626940410000003</v>
+      </c>
+      <c r="AF14">
+        <v>-2.430761929999996</v>
+      </c>
+      <c r="AG14">
+        <v>-1.849671880000002</v>
+      </c>
+      <c r="AH14">
+        <v>-2.35807226</v>
+      </c>
+      <c r="AI14">
+        <v>-3.827423089999996</v>
+      </c>
+      <c r="AJ14">
+        <v>0.8315844100000049</v>
+      </c>
+      <c r="AK14">
+        <v>1.848218119999999</v>
+      </c>
+      <c r="AL14">
+        <v>3.396994880000008</v>
+      </c>
+      <c r="AM14">
+        <v>3.782586670000001</v>
+      </c>
+      <c r="AN14">
+        <v>5.594000000000008</v>
+      </c>
+      <c r="AO14">
+        <v>4.183999999999997</v>
+      </c>
+      <c r="AP14">
+        <v>5.48299999999999</v>
+      </c>
+      <c r="AQ14">
+        <v>5.968000000000004</v>
+      </c>
+      <c r="AR14">
+        <v>7.51100000000001</v>
+      </c>
+      <c r="AS14">
+        <v>4.429000000000002</v>
+      </c>
+      <c r="AT14">
+        <v>6.344999999999999</v>
+      </c>
+      <c r="AU14">
+        <v>13.72300000000001</v>
+      </c>
+      <c r="AV14">
+        <v>12.72399999999999</v>
+      </c>
+      <c r="AW14">
+        <v>10.364</v>
+      </c>
+      <c r="AX14">
+        <v>6.59899999999999</v>
+      </c>
+      <c r="AY14">
+        <v>7.543999999999983</v>
+      </c>
+      <c r="AZ14">
+        <v>7.688000000000017</v>
+      </c>
+      <c r="BA14">
+        <v>-4.421999999999997</v>
+      </c>
+      <c r="BB14">
+        <v>-0.1269999999999811</v>
+      </c>
+      <c r="BC14">
+        <v>-2.111999999999995</v>
+      </c>
+      <c r="BD14">
+        <v>-5.706999999999994</v>
+      </c>
+      <c r="BE14">
+        <v>-4.920999999999992</v>
+      </c>
+      <c r="BF14">
+        <v>-2.667000000000002</v>
+      </c>
+      <c r="BG14">
+        <v>-2.798000000000002</v>
+      </c>
+      <c r="BH14">
+        <v>1.111000000000018</v>
+      </c>
+      <c r="BI14">
+        <v>2.133434800000003</v>
+      </c>
+      <c r="BJ14">
+        <v>1.492142800000011</v>
+      </c>
+      <c r="BK14">
+        <v>1.677900399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0.3796692571000001</v>
+      </c>
+      <c r="F15">
+        <v>0.4203759751000001</v>
+      </c>
+      <c r="G15">
+        <v>0.5149362799</v>
+      </c>
+      <c r="H15">
+        <v>0.4459648032</v>
+      </c>
+      <c r="I15">
+        <v>0.6309859979999999</v>
+      </c>
+      <c r="J15">
+        <v>0.590458057</v>
+      </c>
+      <c r="K15">
+        <v>0.738131976</v>
+      </c>
+      <c r="L15">
+        <v>0.8449928020000002</v>
+      </c>
+      <c r="M15">
+        <v>0.865916465</v>
+      </c>
+      <c r="N15">
+        <v>0.805148371</v>
+      </c>
+      <c r="O15">
+        <v>1.03596804</v>
+      </c>
+      <c r="P15">
+        <v>1.254228608</v>
+      </c>
+      <c r="Q15">
+        <v>1.192885296</v>
+      </c>
+      <c r="R15">
+        <v>1.3947654</v>
+      </c>
+      <c r="S15">
+        <v>2.429138128</v>
+      </c>
+      <c r="T15">
+        <v>2.116785186</v>
+      </c>
+      <c r="U15">
+        <v>2.912495175</v>
+      </c>
+      <c r="V15">
+        <v>3.330169245</v>
+      </c>
+      <c r="W15">
+        <v>2.378218513000001</v>
+      </c>
+      <c r="X15">
+        <v>2.652810439</v>
+      </c>
+      <c r="Y15">
+        <v>2.541845671000001</v>
+      </c>
+      <c r="Z15">
+        <v>3.734601571000001</v>
+      </c>
+      <c r="AA15">
+        <v>4.513502650000001</v>
+      </c>
+      <c r="AB15">
+        <v>5.337852490000001</v>
+      </c>
+      <c r="AC15">
+        <v>5.864981860000002</v>
+      </c>
+      <c r="AD15">
+        <v>5.535621260000001</v>
+      </c>
+      <c r="AE15">
+        <v>5.268799420000001</v>
+      </c>
+      <c r="AF15">
+        <v>5.849090199999999</v>
+      </c>
+      <c r="AG15">
+        <v>6.329289370000001</v>
+      </c>
+      <c r="AH15">
+        <v>6.906803499999999</v>
+      </c>
+      <c r="AI15">
+        <v>8.153445439999999</v>
+      </c>
+      <c r="AJ15">
+        <v>2.406235419999998</v>
+      </c>
+      <c r="AK15">
+        <v>2.848297089999999</v>
+      </c>
+      <c r="AL15">
+        <v>2.735183060000001</v>
+      </c>
+      <c r="AM15">
+        <v>3.731752459999999</v>
+      </c>
+      <c r="AN15">
+        <v>1.736999999999998</v>
+      </c>
+      <c r="AO15">
+        <v>1.917000000000002</v>
+      </c>
+      <c r="AP15">
+        <v>2.261000000000003</v>
+      </c>
+      <c r="AQ15">
+        <v>1.794</v>
+      </c>
+      <c r="AR15">
+        <v>1.769999999999996</v>
+      </c>
+      <c r="AS15">
+        <v>2.378</v>
+      </c>
+      <c r="AT15">
+        <v>2.548999999999999</v>
+      </c>
+      <c r="AU15">
+        <v>1.417999999999999</v>
+      </c>
+      <c r="AV15">
+        <v>1.978999999999999</v>
+      </c>
+      <c r="AW15">
+        <v>3.681000000000004</v>
+      </c>
+      <c r="AX15">
+        <v>4.82</v>
+      </c>
+      <c r="AY15">
+        <v>4.634999999999998</v>
+      </c>
+      <c r="AZ15">
+        <v>5.474000000000004</v>
+      </c>
+      <c r="BA15">
+        <v>6.135000000000005</v>
+      </c>
+      <c r="BB15">
+        <v>8.018999999999998</v>
+      </c>
+      <c r="BC15">
+        <v>8.670999999999992</v>
+      </c>
+      <c r="BD15">
+        <v>7.668999999999997</v>
+      </c>
+      <c r="BE15">
+        <v>7.310000000000002</v>
+      </c>
+      <c r="BF15">
+        <v>7.138999999999996</v>
+      </c>
+      <c r="BG15">
+        <v>6.469999999999999</v>
+      </c>
+      <c r="BH15">
+        <v>5.741</v>
+      </c>
+      <c r="BI15">
+        <v>8.351713579999995</v>
+      </c>
+      <c r="BJ15">
+        <v>10.1855723</v>
+      </c>
+      <c r="BK15">
+        <v>10.6597531</v>
+      </c>
+      <c r="BL15">
+        <v>12.44792081418812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26">
+        <v>2.848628826</v>
+      </c>
+      <c r="P26">
+        <v>3.429367196999999</v>
+      </c>
+      <c r="Q26">
+        <v>3.604991015</v>
+      </c>
+      <c r="R26">
+        <v>3.918987712</v>
+      </c>
+      <c r="S26">
+        <v>4.545532343</v>
+      </c>
+      <c r="T26">
+        <v>5.059793940999999</v>
+      </c>
+      <c r="U26">
+        <v>5.619537326999999</v>
+      </c>
+      <c r="V26">
+        <v>6.042880461</v>
+      </c>
+      <c r="W26">
+        <v>6.329144514999999</v>
+      </c>
+      <c r="X26">
+        <v>6.928568957</v>
+      </c>
+      <c r="Y26">
+        <v>7.665245996</v>
+      </c>
+      <c r="Z26">
+        <v>7.680230761</v>
+      </c>
+      <c r="AA26">
+        <v>7.99485972</v>
+      </c>
+      <c r="AB26">
+        <v>7.519091497999999</v>
+      </c>
+      <c r="AC26">
+        <v>7.22430338</v>
+      </c>
+      <c r="AD26">
+        <v>7.367155512999999</v>
+      </c>
+      <c r="AE26">
+        <v>7.360345475</v>
+      </c>
+      <c r="AF26">
+        <v>7.392387991</v>
+      </c>
+      <c r="AG26">
+        <v>8.295148585</v>
+      </c>
+      <c r="AH26">
+        <v>8.346138309999999</v>
+      </c>
+      <c r="AI26">
+        <v>9.045527380000001</v>
+      </c>
+      <c r="AJ26">
+        <v>9.811568966999999</v>
+      </c>
+      <c r="AK26">
+        <v>10.17687973</v>
+      </c>
+      <c r="AL26">
+        <v>10.23665712</v>
+      </c>
+      <c r="AM26">
+        <v>10.74552048</v>
+      </c>
+      <c r="AN26">
+        <v>10.1982</v>
+      </c>
+      <c r="AO26">
+        <v>10.9179</v>
+      </c>
+      <c r="AP26">
+        <v>11.0371</v>
+      </c>
+      <c r="AQ26">
+        <v>11.7543</v>
+      </c>
+      <c r="AR26">
+        <v>11.6896</v>
+      </c>
+      <c r="AS26">
+        <v>11.6739</v>
+      </c>
+      <c r="AT26">
+        <v>11.6906</v>
+      </c>
+      <c r="AU26">
+        <v>10.9851</v>
+      </c>
+      <c r="AV26">
+        <v>11.3817</v>
+      </c>
+      <c r="AW26">
+        <v>12.7782</v>
+      </c>
+      <c r="AX26">
+        <v>12.9637</v>
+      </c>
+      <c r="AY26">
+        <v>13.4913</v>
+      </c>
+      <c r="AZ26">
+        <v>15.0052</v>
+      </c>
+      <c r="BA26">
+        <v>16.3254</v>
+      </c>
+      <c r="BB26">
+        <v>17.0917</v>
+      </c>
+      <c r="BC26">
+        <v>16.677</v>
+      </c>
+      <c r="BD26">
+        <v>19.7034</v>
+      </c>
+      <c r="BE26">
+        <v>21.3173</v>
+      </c>
+      <c r="BF26">
+        <v>20.9722</v>
+      </c>
+      <c r="BG26">
+        <v>20.8253</v>
+      </c>
+      <c r="BH26">
+        <v>20.9169</v>
+      </c>
+      <c r="BI26">
+        <v>21.67491758</v>
+      </c>
+      <c r="BJ26">
+        <v>22.43926187</v>
+      </c>
+      <c r="BK26">
+        <v>23.77583407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <v>2.848628826</v>
+      </c>
+      <c r="P31">
+        <v>3.429367196999999</v>
+      </c>
+      <c r="Q31">
+        <v>3.604991015</v>
+      </c>
+      <c r="R31">
+        <v>3.918987712</v>
+      </c>
+      <c r="S31">
+        <v>4.545532343</v>
+      </c>
+      <c r="T31">
+        <v>5.059793940999999</v>
+      </c>
+      <c r="U31">
+        <v>5.619537326999999</v>
+      </c>
+      <c r="V31">
+        <v>6.042880461</v>
+      </c>
+      <c r="W31">
+        <v>6.329144514999999</v>
+      </c>
+      <c r="X31">
+        <v>6.928568957</v>
+      </c>
+      <c r="Y31">
+        <v>7.665245996</v>
+      </c>
+      <c r="Z31">
+        <v>7.680230761</v>
+      </c>
+      <c r="AA31">
+        <v>7.99485972</v>
+      </c>
+      <c r="AB31">
+        <v>7.519091497999999</v>
+      </c>
+      <c r="AC31">
+        <v>7.22430338</v>
+      </c>
+      <c r="AD31">
+        <v>7.367155512999999</v>
+      </c>
+      <c r="AE31">
+        <v>7.360345475</v>
+      </c>
+      <c r="AF31">
+        <v>7.392387991</v>
+      </c>
+      <c r="AG31">
+        <v>8.295148585</v>
+      </c>
+      <c r="AH31">
+        <v>8.346138309999999</v>
+      </c>
+      <c r="AI31">
+        <v>9.045527380000001</v>
+      </c>
+      <c r="AJ31">
+        <v>9.811568966999999</v>
+      </c>
+      <c r="AK31">
+        <v>10.17687973</v>
+      </c>
+      <c r="AL31">
+        <v>10.23665712</v>
+      </c>
+      <c r="AM31">
+        <v>10.74552048</v>
+      </c>
+      <c r="AN31">
+        <v>10.1982</v>
+      </c>
+      <c r="AO31">
+        <v>10.9179</v>
+      </c>
+      <c r="AP31">
+        <v>11.0371</v>
+      </c>
+      <c r="AQ31">
+        <v>11.7543</v>
+      </c>
+      <c r="AR31">
+        <v>11.6896</v>
+      </c>
+      <c r="AS31">
+        <v>11.6739</v>
+      </c>
+      <c r="AT31">
+        <v>11.6906</v>
+      </c>
+      <c r="AU31">
+        <v>10.9851</v>
+      </c>
+      <c r="AV31">
+        <v>11.3817</v>
+      </c>
+      <c r="AW31">
+        <v>12.7782</v>
+      </c>
+      <c r="AX31">
+        <v>12.9637</v>
+      </c>
+      <c r="AY31">
+        <v>13.4913</v>
+      </c>
+      <c r="AZ31">
+        <v>15.0052</v>
+      </c>
+      <c r="BA31">
+        <v>16.3254</v>
+      </c>
+      <c r="BB31">
+        <v>17.0917</v>
+      </c>
+      <c r="BC31">
+        <v>16.677</v>
+      </c>
+      <c r="BD31">
+        <v>19.7034</v>
+      </c>
+      <c r="BE31">
+        <v>21.3173</v>
+      </c>
+      <c r="BF31">
+        <v>20.9722</v>
+      </c>
+      <c r="BG31">
+        <v>20.8253</v>
+      </c>
+      <c r="BH31">
+        <v>20.9169</v>
+      </c>
+      <c r="BI31">
+        <v>21.67491758</v>
+      </c>
+      <c r="BJ31">
+        <v>22.43926187</v>
+      </c>
+      <c r="BK31">
+        <v>23.77583407</v>
+      </c>
+      <c r="BL31">
+        <v>24.93151313015101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN32">
+        <v>4.8568</v>
+      </c>
+      <c r="AO32">
+        <v>4.6556</v>
+      </c>
+      <c r="AP32">
+        <v>4.9722</v>
+      </c>
+      <c r="AQ32">
+        <v>5.0324</v>
+      </c>
+      <c r="AR32">
+        <v>5.9566</v>
+      </c>
+      <c r="AS32">
+        <v>6.2708</v>
+      </c>
+      <c r="AT32">
+        <v>5.7936</v>
+      </c>
+      <c r="AU32">
+        <v>5.8344</v>
+      </c>
+      <c r="AV32">
+        <v>6.0935</v>
+      </c>
+      <c r="AW32">
+        <v>6.1951</v>
+      </c>
+      <c r="AX32">
+        <v>6.6256</v>
+      </c>
+      <c r="AY32">
+        <v>6.4187</v>
+      </c>
+      <c r="AZ32">
+        <v>7.0316</v>
+      </c>
+      <c r="BA32">
+        <v>7.4208</v>
+      </c>
+      <c r="BB32">
+        <v>8.132</v>
+      </c>
+      <c r="BC32">
+        <v>8.398</v>
+      </c>
+      <c r="BD32">
+        <v>9.2775</v>
+      </c>
+      <c r="BE32">
+        <v>9.6455</v>
+      </c>
+      <c r="BF32">
+        <v>9.273199999999999</v>
+      </c>
+      <c r="BG32">
+        <v>9.5661</v>
+      </c>
+      <c r="BH32">
+        <v>9.704599999999999</v>
+      </c>
+      <c r="BI32">
+        <v>9.98312202</v>
+      </c>
+      <c r="BJ32">
+        <v>10.18322122</v>
+      </c>
+      <c r="BK32">
+        <v>10.80541604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN33">
+        <v>4.8568</v>
+      </c>
+      <c r="AO33">
+        <v>4.6556</v>
+      </c>
+      <c r="AP33">
+        <v>4.9722</v>
+      </c>
+      <c r="AQ33">
+        <v>5.0324</v>
+      </c>
+      <c r="AR33">
+        <v>5.9566</v>
+      </c>
+      <c r="AS33">
+        <v>6.2708</v>
+      </c>
+      <c r="AT33">
+        <v>5.7936</v>
+      </c>
+      <c r="AU33">
+        <v>5.8344</v>
+      </c>
+      <c r="AV33">
+        <v>6.0935</v>
+      </c>
+      <c r="AW33">
+        <v>6.1951</v>
+      </c>
+      <c r="AX33">
+        <v>6.6256</v>
+      </c>
+      <c r="AY33">
+        <v>6.4187</v>
+      </c>
+      <c r="AZ33">
+        <v>7.0316</v>
+      </c>
+      <c r="BA33">
+        <v>7.4208</v>
+      </c>
+      <c r="BB33">
+        <v>8.132</v>
+      </c>
+      <c r="BC33">
+        <v>8.398</v>
+      </c>
+      <c r="BD33">
+        <v>9.2775</v>
+      </c>
+      <c r="BE33">
+        <v>9.6455</v>
+      </c>
+      <c r="BF33">
+        <v>9.273199999999999</v>
+      </c>
+      <c r="BG33">
+        <v>9.5661</v>
+      </c>
+      <c r="BH33">
+        <v>9.704599999999999</v>
+      </c>
+      <c r="BI33">
+        <v>9.98312202</v>
+      </c>
+      <c r="BJ33">
+        <v>10.18322122</v>
+      </c>
+      <c r="BK33">
+        <v>10.80541604</v>
+      </c>
+      <c r="BL33">
+        <v>11.6988175250065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>14.833148996</v>
+      </c>
+      <c r="F34">
+        <v>15.724372311</v>
+      </c>
+      <c r="G34">
+        <v>16.830351883</v>
+      </c>
+      <c r="H34">
+        <v>18.207139572</v>
+      </c>
+      <c r="I34">
+        <v>20.133530221</v>
+      </c>
+      <c r="J34">
+        <v>22.038219613</v>
+      </c>
+      <c r="K34">
+        <v>23.853489349</v>
+      </c>
+      <c r="L34">
+        <v>25.453430538</v>
+      </c>
+      <c r="M34">
+        <v>26.988720806</v>
+      </c>
+      <c r="N34">
+        <v>29.471624088</v>
+      </c>
+      <c r="O34">
+        <v>32.584107516</v>
+      </c>
+      <c r="P34">
+        <v>35.845154282</v>
+      </c>
+      <c r="Q34">
+        <v>39.680493188</v>
+      </c>
+      <c r="R34">
+        <v>45.202306353</v>
+      </c>
+      <c r="S34">
+        <v>53.20466659</v>
+      </c>
+      <c r="T34">
+        <v>61.00262991</v>
+      </c>
+      <c r="U34">
+        <v>68.49676975</v>
+      </c>
+      <c r="V34">
+        <v>75.04825323</v>
+      </c>
+      <c r="W34">
+        <v>80.86676433</v>
+      </c>
+      <c r="X34">
+        <v>87.38596289</v>
+      </c>
+      <c r="Y34">
+        <v>95.08911997</v>
+      </c>
+      <c r="Z34">
+        <v>99.24183115</v>
+      </c>
+      <c r="AA34">
+        <v>106.55444651</v>
+      </c>
+      <c r="AB34">
+        <v>111.33348318</v>
+      </c>
+      <c r="AC34">
+        <v>118.44253304</v>
+      </c>
+      <c r="AD34">
+        <v>126.8881725</v>
+      </c>
+      <c r="AE34">
+        <v>131.25545427</v>
+      </c>
+      <c r="AF34">
+        <v>136.4745483</v>
+      </c>
+      <c r="AG34">
+        <v>144.98038452</v>
+      </c>
+      <c r="AH34">
+        <v>157.99057557</v>
+      </c>
+      <c r="AI34">
+        <v>169.05894629</v>
+      </c>
+      <c r="AJ34">
+        <v>176.47997269</v>
+      </c>
+      <c r="AK34">
+        <v>183.72659822</v>
+      </c>
+      <c r="AL34">
+        <v>187.41738964</v>
+      </c>
+      <c r="AM34">
+        <v>195.34668422</v>
+      </c>
+      <c r="AN34">
+        <v>203.244</v>
+      </c>
+      <c r="AO34">
+        <v>209.038</v>
+      </c>
+      <c r="AP34">
+        <v>217.447</v>
+      </c>
+      <c r="AQ34">
+        <v>225.602</v>
+      </c>
+      <c r="AR34">
+        <v>233.843</v>
+      </c>
+      <c r="AS34">
+        <v>248.08</v>
+      </c>
+      <c r="AT34">
+        <v>256.426</v>
+      </c>
+      <c r="AU34">
+        <v>259.916</v>
+      </c>
+      <c r="AV34">
+        <v>266.745</v>
+      </c>
+      <c r="AW34">
+        <v>281.253</v>
+      </c>
+      <c r="AX34">
+        <v>295.541</v>
+      </c>
+      <c r="AY34">
+        <v>309.457</v>
+      </c>
+      <c r="AZ34">
+        <v>327.374</v>
+      </c>
+      <c r="BA34">
+        <v>346.139</v>
+      </c>
+      <c r="BB34">
+        <v>344.11</v>
+      </c>
+      <c r="BC34">
+        <v>355.357</v>
+      </c>
+      <c r="BD34">
+        <v>371.809</v>
+      </c>
+      <c r="BE34">
+        <v>382.867</v>
+      </c>
+      <c r="BF34">
+        <v>387.253</v>
+      </c>
+      <c r="BG34">
+        <v>396.191</v>
+      </c>
+      <c r="BH34">
+        <v>402.608</v>
+      </c>
+      <c r="BI34">
+        <v>412.3713344400001</v>
+      </c>
+      <c r="BJ34">
+        <v>424.6162445</v>
+      </c>
+      <c r="BK34">
+        <v>438.9596661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="AN7">
-        <v>4.8568</v>
-      </c>
-      <c r="AO7">
-        <v>4.6556</v>
-      </c>
-      <c r="AP7">
-        <v>4.9722</v>
-      </c>
-      <c r="AQ7">
-        <v>5.0324</v>
-      </c>
-      <c r="AR7">
-        <v>5.9566</v>
-      </c>
-      <c r="AS7">
-        <v>6.2708</v>
-      </c>
-      <c r="AT7">
-        <v>5.7936</v>
-      </c>
-      <c r="AU7">
-        <v>5.8344</v>
-      </c>
-      <c r="AV7">
-        <v>6.0935</v>
-      </c>
-      <c r="AW7">
-        <v>6.1951</v>
-      </c>
-      <c r="AX7">
-        <v>6.6256</v>
-      </c>
-      <c r="AY7">
-        <v>6.4187</v>
-      </c>
-      <c r="AZ7">
-        <v>7.0316</v>
-      </c>
-      <c r="BA7">
-        <v>7.4208</v>
-      </c>
-      <c r="BB7">
-        <v>8.132</v>
-      </c>
-      <c r="BC7">
-        <v>8.398</v>
-      </c>
-      <c r="BD7">
-        <v>9.2775</v>
-      </c>
-      <c r="BE7">
-        <v>9.6455</v>
-      </c>
-      <c r="BF7">
-        <v>9.273199999999999</v>
-      </c>
-      <c r="BG7">
-        <v>9.5661</v>
-      </c>
-      <c r="BH7">
-        <v>9.704599999999999</v>
-      </c>
-      <c r="BI7">
-        <v>9.98312202</v>
-      </c>
-      <c r="BJ7">
-        <v>10.18322122</v>
-      </c>
-      <c r="BK7">
-        <v>10.80541604</v>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>14.833148996</v>
+      </c>
+      <c r="F35">
+        <v>15.724372311</v>
+      </c>
+      <c r="G35">
+        <v>16.830351883</v>
+      </c>
+      <c r="H35">
+        <v>18.207139572</v>
+      </c>
+      <c r="I35">
+        <v>20.133530221</v>
+      </c>
+      <c r="J35">
+        <v>22.038219613</v>
+      </c>
+      <c r="K35">
+        <v>23.853489349</v>
+      </c>
+      <c r="L35">
+        <v>25.453430538</v>
+      </c>
+      <c r="M35">
+        <v>26.988720806</v>
+      </c>
+      <c r="N35">
+        <v>29.471624088</v>
+      </c>
+      <c r="O35">
+        <v>32.584107516</v>
+      </c>
+      <c r="P35">
+        <v>35.845154282</v>
+      </c>
+      <c r="Q35">
+        <v>39.680493188</v>
+      </c>
+      <c r="R35">
+        <v>45.202306353</v>
+      </c>
+      <c r="S35">
+        <v>53.20466659</v>
+      </c>
+      <c r="T35">
+        <v>61.00262991</v>
+      </c>
+      <c r="U35">
+        <v>68.49676975</v>
+      </c>
+      <c r="V35">
+        <v>75.04825323</v>
+      </c>
+      <c r="W35">
+        <v>80.86676433</v>
+      </c>
+      <c r="X35">
+        <v>87.38596289</v>
+      </c>
+      <c r="Y35">
+        <v>95.08911997</v>
+      </c>
+      <c r="Z35">
+        <v>99.24183115</v>
+      </c>
+      <c r="AA35">
+        <v>106.55444651</v>
+      </c>
+      <c r="AB35">
+        <v>111.33348318</v>
+      </c>
+      <c r="AC35">
+        <v>118.44253304</v>
+      </c>
+      <c r="AD35">
+        <v>126.8881725</v>
+      </c>
+      <c r="AE35">
+        <v>131.25545427</v>
+      </c>
+      <c r="AF35">
+        <v>136.4745483</v>
+      </c>
+      <c r="AG35">
+        <v>144.98038452</v>
+      </c>
+      <c r="AH35">
+        <v>157.99057557</v>
+      </c>
+      <c r="AI35">
+        <v>169.05894629</v>
+      </c>
+      <c r="AJ35">
+        <v>176.47997269</v>
+      </c>
+      <c r="AK35">
+        <v>183.72659822</v>
+      </c>
+      <c r="AL35">
+        <v>187.41738964</v>
+      </c>
+      <c r="AM35">
+        <v>195.34668422</v>
+      </c>
+      <c r="AN35">
+        <v>203.244</v>
+      </c>
+      <c r="AO35">
+        <v>209.038</v>
+      </c>
+      <c r="AP35">
+        <v>217.447</v>
+      </c>
+      <c r="AQ35">
+        <v>225.602</v>
+      </c>
+      <c r="AR35">
+        <v>233.843</v>
+      </c>
+      <c r="AS35">
+        <v>248.08</v>
+      </c>
+      <c r="AT35">
+        <v>256.426</v>
+      </c>
+      <c r="AU35">
+        <v>259.916</v>
+      </c>
+      <c r="AV35">
+        <v>266.745</v>
+      </c>
+      <c r="AW35">
+        <v>281.253</v>
+      </c>
+      <c r="AX35">
+        <v>295.541</v>
+      </c>
+      <c r="AY35">
+        <v>309.457</v>
+      </c>
+      <c r="AZ35">
+        <v>327.374</v>
+      </c>
+      <c r="BA35">
+        <v>346.139</v>
+      </c>
+      <c r="BB35">
+        <v>344.11</v>
+      </c>
+      <c r="BC35">
+        <v>355.357</v>
+      </c>
+      <c r="BD35">
+        <v>371.809</v>
+      </c>
+      <c r="BE35">
+        <v>382.867</v>
+      </c>
+      <c r="BF35">
+        <v>387.253</v>
+      </c>
+      <c r="BG35">
+        <v>396.191</v>
+      </c>
+      <c r="BH35">
+        <v>402.608</v>
+      </c>
+      <c r="BI35">
+        <v>412.3713344400001</v>
+      </c>
+      <c r="BJ35">
+        <v>424.6162445</v>
+      </c>
+      <c r="BK35">
+        <v>438.9596661</v>
+      </c>
+      <c r="BL35">
+        <v>453.4994149149197</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
-      <c r="A8" t="s">
+    <row r="36" spans="1:64">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN8">
-        <v>40.2862</v>
-      </c>
-      <c r="AO8">
-        <v>41.3374</v>
-      </c>
-      <c r="AP8">
-        <v>44.6298</v>
-      </c>
-      <c r="AQ8">
-        <v>46.4056</v>
-      </c>
-      <c r="AR8">
-        <v>48.4124</v>
-      </c>
-      <c r="AS8">
-        <v>51.8042</v>
-      </c>
-      <c r="AT8">
-        <v>53.7854</v>
-      </c>
-      <c r="AU8">
-        <v>50.9996</v>
-      </c>
-      <c r="AV8">
-        <v>51.6775</v>
-      </c>
-      <c r="AW8">
-        <v>57.5869</v>
-      </c>
-      <c r="AX8">
-        <v>62.3924</v>
-      </c>
-      <c r="AY8">
-        <v>66.5753</v>
-      </c>
-      <c r="AZ8">
-        <v>73.06440000000001</v>
-      </c>
-      <c r="BA8">
-        <v>77.4692</v>
-      </c>
-      <c r="BB8">
-        <v>70.64999999999999</v>
-      </c>
-      <c r="BC8">
-        <v>71.26700000000001</v>
-      </c>
-      <c r="BD8">
-        <v>76.33449999999999</v>
-      </c>
-      <c r="BE8">
-        <v>78.02850000000001</v>
-      </c>
-      <c r="BF8">
-        <v>77.6938</v>
-      </c>
-      <c r="BG8">
-        <v>82.1939</v>
-      </c>
-      <c r="BH8">
-        <v>84.6514</v>
-      </c>
-      <c r="BI8">
-        <v>87.20376132</v>
-      </c>
-      <c r="BJ8">
-        <v>90.55874578000001</v>
-      </c>
-      <c r="BK8">
-        <v>94.41579016</v>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>14.824869352273</v>
+      </c>
+      <c r="F36">
+        <v>15.80387176439</v>
+      </c>
+      <c r="G36">
+        <v>16.829038047319</v>
+      </c>
+      <c r="H36">
+        <v>18.2696335296</v>
+      </c>
+      <c r="I36">
+        <v>20.4245324297</v>
+      </c>
+      <c r="J36">
+        <v>22.2080514668</v>
+      </c>
+      <c r="K36">
+        <v>24.0663555187</v>
+      </c>
+      <c r="L36">
+        <v>25.5597520708</v>
+      </c>
+      <c r="M36">
+        <v>27.2151219622</v>
+      </c>
+      <c r="N36">
+        <v>30.0131474929</v>
+      </c>
+      <c r="O36">
+        <v>33.511107516</v>
+      </c>
+      <c r="P36">
+        <v>36.48425428199999</v>
+      </c>
+      <c r="Q36">
+        <v>39.894693188</v>
+      </c>
+      <c r="R36">
+        <v>45.855106353</v>
+      </c>
+      <c r="S36">
+        <v>54.31976659</v>
+      </c>
+      <c r="T36">
+        <v>60.80792991</v>
+      </c>
+      <c r="U36">
+        <v>68.93046975</v>
+      </c>
+      <c r="V36">
+        <v>75.66275323000001</v>
+      </c>
+      <c r="W36">
+        <v>81.13616433</v>
+      </c>
+      <c r="X36">
+        <v>87.97236289</v>
+      </c>
+      <c r="Y36">
+        <v>96.18141996999999</v>
+      </c>
+      <c r="Z36">
+        <v>99.81683115</v>
+      </c>
+      <c r="AA36">
+        <v>107.46144651</v>
+      </c>
+      <c r="AB36">
+        <v>111.08148318</v>
+      </c>
+      <c r="AC36">
+        <v>119.66953304</v>
+      </c>
+      <c r="AD36">
+        <v>126.7281725</v>
+      </c>
+      <c r="AE36">
+        <v>130.79045427</v>
+      </c>
+      <c r="AF36">
+        <v>136.7485483</v>
+      </c>
+      <c r="AG36">
+        <v>145.57238452</v>
+      </c>
+      <c r="AH36">
+        <v>158.45657557</v>
+      </c>
+      <c r="AI36">
+        <v>169.03894629</v>
+      </c>
+      <c r="AJ36">
+        <v>176.62897269</v>
+      </c>
+      <c r="AK36">
+        <v>183.96659822</v>
+      </c>
+      <c r="AL36">
+        <v>187.88938964</v>
+      </c>
+      <c r="AM36">
+        <v>196.93868422</v>
+      </c>
+      <c r="AN36">
+        <v>204.285</v>
+      </c>
+      <c r="AO36">
+        <v>209.841</v>
+      </c>
+      <c r="AP36">
+        <v>218.225</v>
+      </c>
+      <c r="AQ36">
+        <v>226.728</v>
+      </c>
+      <c r="AR36">
+        <v>234.944</v>
+      </c>
+      <c r="AS36">
+        <v>251.415</v>
+      </c>
+      <c r="AT36">
+        <v>256.894</v>
+      </c>
+      <c r="AU36">
+        <v>259.923</v>
+      </c>
+      <c r="AV36">
+        <v>267.934</v>
+      </c>
+      <c r="AW36">
+        <v>284.665</v>
+      </c>
+      <c r="AX36">
+        <v>300.061</v>
+      </c>
+      <c r="AY36">
+        <v>314.484</v>
+      </c>
+      <c r="AZ36">
+        <v>331.551</v>
+      </c>
+      <c r="BA36">
+        <v>352.352</v>
+      </c>
+      <c r="BB36">
+        <v>340.889</v>
+      </c>
+      <c r="BC36">
+        <v>358.541</v>
+      </c>
+      <c r="BD36">
+        <v>377.145</v>
+      </c>
+      <c r="BE36">
+        <v>385.111</v>
+      </c>
+      <c r="BF36">
+        <v>387.24</v>
+      </c>
+      <c r="BG36">
+        <v>397.133</v>
+      </c>
+      <c r="BH36">
+        <v>403.499</v>
+      </c>
+      <c r="BI36">
+        <v>411.2575844400001</v>
+      </c>
+      <c r="BJ36">
+        <v>423.0792695</v>
+      </c>
+      <c r="BK36">
+        <v>437.4226911</v>
       </c>
     </row>
-    <row r="9" spans="1:64">
-      <c r="A9" t="s">
+    <row r="37" spans="1:64">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9">
-        <v>2.848628826</v>
-      </c>
-      <c r="P9">
-        <v>3.429367196999999</v>
-      </c>
-      <c r="Q9">
-        <v>3.604991015</v>
-      </c>
-      <c r="R9">
-        <v>3.918987712</v>
-      </c>
-      <c r="S9">
-        <v>4.545532343</v>
-      </c>
-      <c r="T9">
-        <v>5.059793940999999</v>
-      </c>
-      <c r="U9">
-        <v>5.619537326999999</v>
-      </c>
-      <c r="V9">
-        <v>6.042880461</v>
-      </c>
-      <c r="W9">
-        <v>6.329144514999999</v>
-      </c>
-      <c r="X9">
-        <v>6.928568957</v>
-      </c>
-      <c r="Y9">
-        <v>7.665245996</v>
-      </c>
-      <c r="Z9">
-        <v>7.680230761</v>
-      </c>
-      <c r="AA9">
-        <v>7.99485972</v>
-      </c>
-      <c r="AB9">
-        <v>7.519091497999999</v>
-      </c>
-      <c r="AC9">
-        <v>7.22430338</v>
-      </c>
-      <c r="AD9">
-        <v>7.367155512999999</v>
-      </c>
-      <c r="AE9">
-        <v>7.360345475</v>
-      </c>
-      <c r="AF9">
-        <v>7.392387991</v>
-      </c>
-      <c r="AG9">
-        <v>8.295148585</v>
-      </c>
-      <c r="AH9">
-        <v>8.346138309999999</v>
-      </c>
-      <c r="AI9">
-        <v>9.045527380000001</v>
-      </c>
-      <c r="AJ9">
-        <v>9.811568966999999</v>
-      </c>
-      <c r="AK9">
-        <v>10.17687973</v>
-      </c>
-      <c r="AL9">
-        <v>10.23665712</v>
-      </c>
-      <c r="AM9">
-        <v>10.74552048</v>
-      </c>
-      <c r="AN9">
-        <v>10.1982</v>
-      </c>
-      <c r="AO9">
-        <v>10.9179</v>
-      </c>
-      <c r="AP9">
-        <v>11.0371</v>
-      </c>
-      <c r="AQ9">
-        <v>11.7543</v>
-      </c>
-      <c r="AR9">
-        <v>11.6896</v>
-      </c>
-      <c r="AS9">
-        <v>11.6739</v>
-      </c>
-      <c r="AT9">
-        <v>11.6906</v>
-      </c>
-      <c r="AU9">
-        <v>10.9851</v>
-      </c>
-      <c r="AV9">
-        <v>11.3817</v>
-      </c>
-      <c r="AW9">
-        <v>12.7782</v>
-      </c>
-      <c r="AX9">
-        <v>12.9637</v>
-      </c>
-      <c r="AY9">
-        <v>13.4913</v>
-      </c>
-      <c r="AZ9">
-        <v>15.0052</v>
-      </c>
-      <c r="BA9">
-        <v>16.3254</v>
-      </c>
-      <c r="BB9">
-        <v>17.0917</v>
-      </c>
-      <c r="BC9">
-        <v>16.677</v>
-      </c>
-      <c r="BD9">
-        <v>19.7034</v>
-      </c>
-      <c r="BE9">
-        <v>21.3173</v>
-      </c>
-      <c r="BF9">
-        <v>20.9722</v>
-      </c>
-      <c r="BG9">
-        <v>20.8253</v>
-      </c>
-      <c r="BH9">
-        <v>20.9169</v>
-      </c>
-      <c r="BI9">
-        <v>21.67491758</v>
-      </c>
-      <c r="BJ9">
-        <v>22.43926187</v>
-      </c>
-      <c r="BK9">
-        <v>23.77583407</v>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>14.824869352273</v>
+      </c>
+      <c r="F37">
+        <v>15.80387176439</v>
+      </c>
+      <c r="G37">
+        <v>16.829038047319</v>
+      </c>
+      <c r="H37">
+        <v>18.2696335296</v>
+      </c>
+      <c r="I37">
+        <v>20.4245324297</v>
+      </c>
+      <c r="J37">
+        <v>22.2080514668</v>
+      </c>
+      <c r="K37">
+        <v>24.0663555187</v>
+      </c>
+      <c r="L37">
+        <v>25.5597520708</v>
+      </c>
+      <c r="M37">
+        <v>27.2151219622</v>
+      </c>
+      <c r="N37">
+        <v>30.0131474929</v>
+      </c>
+      <c r="O37">
+        <v>33.511107516</v>
+      </c>
+      <c r="P37">
+        <v>36.48425428199999</v>
+      </c>
+      <c r="Q37">
+        <v>39.894693188</v>
+      </c>
+      <c r="R37">
+        <v>45.855106353</v>
+      </c>
+      <c r="S37">
+        <v>54.31976659</v>
+      </c>
+      <c r="T37">
+        <v>60.80792991</v>
+      </c>
+      <c r="U37">
+        <v>68.93046975</v>
+      </c>
+      <c r="V37">
+        <v>75.66275323000001</v>
+      </c>
+      <c r="W37">
+        <v>81.13616433</v>
+      </c>
+      <c r="X37">
+        <v>87.97236289</v>
+      </c>
+      <c r="Y37">
+        <v>96.18141996999999</v>
+      </c>
+      <c r="Z37">
+        <v>99.81683115</v>
+      </c>
+      <c r="AA37">
+        <v>107.46144651</v>
+      </c>
+      <c r="AB37">
+        <v>111.08148318</v>
+      </c>
+      <c r="AC37">
+        <v>119.66953304</v>
+      </c>
+      <c r="AD37">
+        <v>126.7281725</v>
+      </c>
+      <c r="AE37">
+        <v>130.79045427</v>
+      </c>
+      <c r="AF37">
+        <v>136.7485483</v>
+      </c>
+      <c r="AG37">
+        <v>145.57238452</v>
+      </c>
+      <c r="AH37">
+        <v>158.45657557</v>
+      </c>
+      <c r="AI37">
+        <v>169.03894629</v>
+      </c>
+      <c r="AJ37">
+        <v>176.62897269</v>
+      </c>
+      <c r="AK37">
+        <v>183.96659822</v>
+      </c>
+      <c r="AL37">
+        <v>187.88938964</v>
+      </c>
+      <c r="AM37">
+        <v>196.93868422</v>
+      </c>
+      <c r="AN37">
+        <v>204.285</v>
+      </c>
+      <c r="AO37">
+        <v>209.841</v>
+      </c>
+      <c r="AP37">
+        <v>218.225</v>
+      </c>
+      <c r="AQ37">
+        <v>226.728</v>
+      </c>
+      <c r="AR37">
+        <v>234.944</v>
+      </c>
+      <c r="AS37">
+        <v>251.415</v>
+      </c>
+      <c r="AT37">
+        <v>256.894</v>
+      </c>
+      <c r="AU37">
+        <v>259.923</v>
+      </c>
+      <c r="AV37">
+        <v>267.934</v>
+      </c>
+      <c r="AW37">
+        <v>284.665</v>
+      </c>
+      <c r="AX37">
+        <v>300.061</v>
+      </c>
+      <c r="AY37">
+        <v>314.484</v>
+      </c>
+      <c r="AZ37">
+        <v>331.551</v>
+      </c>
+      <c r="BA37">
+        <v>352.352</v>
+      </c>
+      <c r="BB37">
+        <v>340.889</v>
+      </c>
+      <c r="BC37">
+        <v>358.541</v>
+      </c>
+      <c r="BD37">
+        <v>377.145</v>
+      </c>
+      <c r="BE37">
+        <v>385.111</v>
+      </c>
+      <c r="BF37">
+        <v>387.24</v>
+      </c>
+      <c r="BG37">
+        <v>397.133</v>
+      </c>
+      <c r="BH37">
+        <v>403.499</v>
+      </c>
+      <c r="BI37">
+        <v>411.2575844400001</v>
+      </c>
+      <c r="BJ37">
+        <v>423.0792695</v>
+      </c>
+      <c r="BK37">
+        <v>437.4226911</v>
+      </c>
+      <c r="BL37">
+        <v>451.9624399149197</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
-      <c r="A10" t="s">
+    <row r="38" spans="1:64">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>14.833148996</v>
-      </c>
-      <c r="F10">
-        <v>15.724372311</v>
-      </c>
-      <c r="G10">
-        <v>16.830351883</v>
-      </c>
-      <c r="H10">
-        <v>18.207139572</v>
-      </c>
-      <c r="I10">
-        <v>20.133530221</v>
-      </c>
-      <c r="J10">
-        <v>22.038219613</v>
-      </c>
-      <c r="K10">
-        <v>23.853489349</v>
-      </c>
-      <c r="L10">
-        <v>25.453430538</v>
-      </c>
-      <c r="M10">
-        <v>26.988720806</v>
-      </c>
-      <c r="N10">
-        <v>29.471624088</v>
-      </c>
-      <c r="O10">
-        <v>32.584107516</v>
-      </c>
-      <c r="P10">
-        <v>35.845154282</v>
-      </c>
-      <c r="Q10">
-        <v>39.680493188</v>
-      </c>
-      <c r="R10">
-        <v>45.202306353</v>
-      </c>
-      <c r="S10">
-        <v>53.20466659</v>
-      </c>
-      <c r="T10">
-        <v>61.00262991</v>
-      </c>
-      <c r="U10">
-        <v>68.49676975</v>
-      </c>
-      <c r="V10">
-        <v>75.04825323</v>
-      </c>
-      <c r="W10">
-        <v>80.86676433</v>
-      </c>
-      <c r="X10">
-        <v>87.38596289</v>
-      </c>
-      <c r="Y10">
-        <v>95.08911997</v>
-      </c>
-      <c r="Z10">
-        <v>99.24183115</v>
-      </c>
-      <c r="AA10">
-        <v>106.55444651</v>
-      </c>
-      <c r="AB10">
-        <v>111.33348318</v>
-      </c>
-      <c r="AC10">
-        <v>118.44253304</v>
-      </c>
-      <c r="AD10">
-        <v>126.8881725</v>
-      </c>
-      <c r="AE10">
-        <v>131.25545427</v>
-      </c>
-      <c r="AF10">
-        <v>136.4745483</v>
-      </c>
-      <c r="AG10">
-        <v>144.98038452</v>
-      </c>
-      <c r="AH10">
-        <v>157.99057557</v>
-      </c>
-      <c r="AI10">
-        <v>169.05894629</v>
-      </c>
-      <c r="AJ10">
-        <v>176.47997269</v>
-      </c>
-      <c r="AK10">
-        <v>183.72659822</v>
-      </c>
-      <c r="AL10">
-        <v>187.41738964</v>
-      </c>
-      <c r="AM10">
-        <v>195.34668422</v>
-      </c>
-      <c r="AN10">
-        <v>203.244</v>
-      </c>
-      <c r="AO10">
-        <v>209.038</v>
-      </c>
-      <c r="AP10">
-        <v>217.447</v>
-      </c>
-      <c r="AQ10">
-        <v>225.602</v>
-      </c>
-      <c r="AR10">
-        <v>233.843</v>
-      </c>
-      <c r="AS10">
-        <v>248.08</v>
-      </c>
-      <c r="AT10">
-        <v>256.426</v>
-      </c>
-      <c r="AU10">
-        <v>259.916</v>
-      </c>
-      <c r="AV10">
-        <v>266.745</v>
-      </c>
-      <c r="AW10">
-        <v>281.253</v>
-      </c>
-      <c r="AX10">
-        <v>295.541</v>
-      </c>
-      <c r="AY10">
-        <v>309.457</v>
-      </c>
-      <c r="AZ10">
-        <v>327.374</v>
-      </c>
-      <c r="BA10">
-        <v>346.139</v>
-      </c>
-      <c r="BB10">
-        <v>344.11</v>
-      </c>
-      <c r="BC10">
-        <v>355.357</v>
-      </c>
-      <c r="BD10">
-        <v>371.809</v>
-      </c>
-      <c r="BE10">
-        <v>382.867</v>
-      </c>
-      <c r="BF10">
-        <v>387.253</v>
-      </c>
-      <c r="BG10">
-        <v>396.191</v>
-      </c>
-      <c r="BH10">
-        <v>402.608</v>
-      </c>
-      <c r="BI10">
-        <v>412.3713344400001</v>
-      </c>
-      <c r="BJ10">
-        <v>424.6162445</v>
-      </c>
-      <c r="BK10">
-        <v>438.9596661</v>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>19.785772268273</v>
+      </c>
+      <c r="F38">
+        <v>21.22242778239</v>
+      </c>
+      <c r="G38">
+        <v>22.867580423319</v>
+      </c>
+      <c r="H38">
+        <v>24.9131711136</v>
+      </c>
+      <c r="I38">
+        <v>28.0400613147</v>
+      </c>
+      <c r="J38">
+        <v>30.3779308718</v>
+      </c>
+      <c r="K38">
+        <v>33.2263122937</v>
+      </c>
+      <c r="L38">
+        <v>35.2332649118</v>
+      </c>
+      <c r="M38">
+        <v>38.04583043819999</v>
+      </c>
+      <c r="N38">
+        <v>42.9747491879</v>
+      </c>
+      <c r="O38">
+        <v>48.490099173</v>
+      </c>
+      <c r="P38">
+        <v>52.46840685699999</v>
+      </c>
+      <c r="Q38">
+        <v>57.861278173</v>
+      </c>
+      <c r="R38">
+        <v>68.053932278</v>
+      </c>
+      <c r="S38">
+        <v>83.05971820500001</v>
+      </c>
+      <c r="T38">
+        <v>88.532248352</v>
+      </c>
+      <c r="U38">
+        <v>102.19046329</v>
+      </c>
+      <c r="V38">
+        <v>111.121117945</v>
+      </c>
+      <c r="W38">
+        <v>117.690531096</v>
+      </c>
+      <c r="X38">
+        <v>130.57858266</v>
+      </c>
+      <c r="Y38">
+        <v>142.51145665</v>
+      </c>
+      <c r="Z38">
+        <v>152.39411818</v>
+      </c>
+      <c r="AA38">
+        <v>168.40230574</v>
+      </c>
+      <c r="AB38">
+        <v>178.21653369</v>
+      </c>
+      <c r="AC38">
+        <v>196.81117594</v>
+      </c>
+      <c r="AD38">
+        <v>206.32867564</v>
+      </c>
+      <c r="AE38">
+        <v>207.46041554</v>
+      </c>
+      <c r="AF38">
+        <v>214.97340917</v>
+      </c>
+      <c r="AG38">
+        <v>234.55742011</v>
+      </c>
+      <c r="AH38">
+        <v>261.69201799</v>
+      </c>
+      <c r="AI38">
+        <v>275.34206276</v>
+      </c>
+      <c r="AJ38">
+        <v>284.35312044</v>
+      </c>
+      <c r="AK38">
+        <v>294.41800832</v>
+      </c>
+      <c r="AL38">
+        <v>296.79802078</v>
+      </c>
+      <c r="AM38">
+        <v>316.8035144</v>
+      </c>
+      <c r="AN38">
+        <v>330.171</v>
+      </c>
+      <c r="AO38">
+        <v>340.362</v>
+      </c>
+      <c r="AP38">
+        <v>362.612</v>
+      </c>
+      <c r="AQ38">
+        <v>375.388</v>
+      </c>
+      <c r="AR38">
+        <v>391.001</v>
+      </c>
+      <c r="AS38">
+        <v>436.967</v>
+      </c>
+      <c r="AT38">
+        <v>445.658</v>
+      </c>
+      <c r="AU38">
+        <v>453.334</v>
+      </c>
+      <c r="AV38">
+        <v>461.812</v>
+      </c>
+      <c r="AW38">
+        <v>494.867</v>
+      </c>
+      <c r="AX38">
+        <v>529.0649999999999</v>
+      </c>
+      <c r="AY38">
+        <v>561.804</v>
+      </c>
+      <c r="AZ38">
+        <v>598.672</v>
+      </c>
+      <c r="BA38">
+        <v>634.528</v>
+      </c>
+      <c r="BB38">
+        <v>582.6279999999999</v>
+      </c>
+      <c r="BC38">
+        <v>637.654</v>
+      </c>
+      <c r="BD38">
+        <v>686.631</v>
+      </c>
+      <c r="BE38">
+        <v>704.046</v>
+      </c>
+      <c r="BF38">
+        <v>707.7</v>
+      </c>
+      <c r="BG38">
+        <v>730.611</v>
+      </c>
+      <c r="BH38">
+        <v>743.7940000000001</v>
+      </c>
+      <c r="BI38">
+        <v>763.72301024</v>
+      </c>
+      <c r="BJ38">
+        <v>799.4762119</v>
+      </c>
+      <c r="BK38">
+        <v>835.9510072</v>
       </c>
     </row>
-    <row r="11" spans="1:64">
-      <c r="A11" t="s">
+    <row r="39" spans="1:64">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>14.824869352273</v>
-      </c>
-      <c r="F11">
-        <v>15.80387176439</v>
-      </c>
-      <c r="G11">
-        <v>16.829038047319</v>
-      </c>
-      <c r="H11">
-        <v>18.2696335296</v>
-      </c>
-      <c r="I11">
-        <v>20.4245324297</v>
-      </c>
-      <c r="J11">
-        <v>22.2080514668</v>
-      </c>
-      <c r="K11">
-        <v>24.0663555187</v>
-      </c>
-      <c r="L11">
-        <v>25.5597520708</v>
-      </c>
-      <c r="M11">
-        <v>27.2151219622</v>
-      </c>
-      <c r="N11">
-        <v>30.0131474929</v>
-      </c>
-      <c r="O11">
-        <v>33.511107516</v>
-      </c>
-      <c r="P11">
-        <v>36.48425428199999</v>
-      </c>
-      <c r="Q11">
-        <v>39.894693188</v>
-      </c>
-      <c r="R11">
-        <v>45.855106353</v>
-      </c>
-      <c r="S11">
-        <v>54.31976659</v>
-      </c>
-      <c r="T11">
-        <v>60.80792991</v>
-      </c>
-      <c r="U11">
-        <v>68.93046975</v>
-      </c>
-      <c r="V11">
-        <v>75.66275323000001</v>
-      </c>
-      <c r="W11">
-        <v>81.13616433</v>
-      </c>
-      <c r="X11">
-        <v>87.97236289</v>
-      </c>
-      <c r="Y11">
-        <v>96.18141996999999</v>
-      </c>
-      <c r="Z11">
-        <v>99.81683115</v>
-      </c>
-      <c r="AA11">
-        <v>107.46144651</v>
-      </c>
-      <c r="AB11">
-        <v>111.08148318</v>
-      </c>
-      <c r="AC11">
-        <v>119.66953304</v>
-      </c>
-      <c r="AD11">
-        <v>126.7281725</v>
-      </c>
-      <c r="AE11">
-        <v>130.79045427</v>
-      </c>
-      <c r="AF11">
-        <v>136.7485483</v>
-      </c>
-      <c r="AG11">
-        <v>145.57238452</v>
-      </c>
-      <c r="AH11">
-        <v>158.45657557</v>
-      </c>
-      <c r="AI11">
-        <v>169.03894629</v>
-      </c>
-      <c r="AJ11">
-        <v>176.62897269</v>
-      </c>
-      <c r="AK11">
-        <v>183.96659822</v>
-      </c>
-      <c r="AL11">
-        <v>187.88938964</v>
-      </c>
-      <c r="AM11">
-        <v>196.93868422</v>
-      </c>
-      <c r="AN11">
-        <v>204.285</v>
-      </c>
-      <c r="AO11">
-        <v>209.841</v>
-      </c>
-      <c r="AP11">
-        <v>218.225</v>
-      </c>
-      <c r="AQ11">
-        <v>226.728</v>
-      </c>
-      <c r="AR11">
-        <v>234.944</v>
-      </c>
-      <c r="AS11">
-        <v>251.415</v>
-      </c>
-      <c r="AT11">
-        <v>256.894</v>
-      </c>
-      <c r="AU11">
-        <v>259.923</v>
-      </c>
-      <c r="AV11">
-        <v>267.934</v>
-      </c>
-      <c r="AW11">
-        <v>284.665</v>
-      </c>
-      <c r="AX11">
-        <v>300.061</v>
-      </c>
-      <c r="AY11">
-        <v>314.484</v>
-      </c>
-      <c r="AZ11">
-        <v>331.551</v>
-      </c>
-      <c r="BA11">
-        <v>352.352</v>
-      </c>
-      <c r="BB11">
-        <v>340.889</v>
-      </c>
-      <c r="BC11">
-        <v>358.541</v>
-      </c>
-      <c r="BD11">
-        <v>377.145</v>
-      </c>
-      <c r="BE11">
-        <v>385.111</v>
-      </c>
-      <c r="BF11">
-        <v>387.24</v>
-      </c>
-      <c r="BG11">
-        <v>397.133</v>
-      </c>
-      <c r="BH11">
-        <v>403.499</v>
-      </c>
-      <c r="BI11">
-        <v>411.2575844400001</v>
-      </c>
-      <c r="BJ11">
-        <v>423.0792695</v>
-      </c>
-      <c r="BK11">
-        <v>437.4226911</v>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>19.785772268273</v>
+      </c>
+      <c r="F39">
+        <v>21.22242778239</v>
+      </c>
+      <c r="G39">
+        <v>22.867580423319</v>
+      </c>
+      <c r="H39">
+        <v>24.9131711136</v>
+      </c>
+      <c r="I39">
+        <v>28.0400613147</v>
+      </c>
+      <c r="J39">
+        <v>30.3779308718</v>
+      </c>
+      <c r="K39">
+        <v>33.2263122937</v>
+      </c>
+      <c r="L39">
+        <v>35.2332649118</v>
+      </c>
+      <c r="M39">
+        <v>38.04583043819999</v>
+      </c>
+      <c r="N39">
+        <v>42.9747491879</v>
+      </c>
+      <c r="O39">
+        <v>48.490099173</v>
+      </c>
+      <c r="P39">
+        <v>52.46840685699999</v>
+      </c>
+      <c r="Q39">
+        <v>57.861278173</v>
+      </c>
+      <c r="R39">
+        <v>68.053932278</v>
+      </c>
+      <c r="S39">
+        <v>83.05971820500001</v>
+      </c>
+      <c r="T39">
+        <v>88.532248352</v>
+      </c>
+      <c r="U39">
+        <v>102.19046329</v>
+      </c>
+      <c r="V39">
+        <v>111.121117945</v>
+      </c>
+      <c r="W39">
+        <v>117.690531096</v>
+      </c>
+      <c r="X39">
+        <v>130.57858266</v>
+      </c>
+      <c r="Y39">
+        <v>142.51145665</v>
+      </c>
+      <c r="Z39">
+        <v>152.39411818</v>
+      </c>
+      <c r="AA39">
+        <v>168.40230574</v>
+      </c>
+      <c r="AB39">
+        <v>178.21653369</v>
+      </c>
+      <c r="AC39">
+        <v>196.81117594</v>
+      </c>
+      <c r="AD39">
+        <v>206.32867564</v>
+      </c>
+      <c r="AE39">
+        <v>207.46041554</v>
+      </c>
+      <c r="AF39">
+        <v>214.97340917</v>
+      </c>
+      <c r="AG39">
+        <v>234.55742011</v>
+      </c>
+      <c r="AH39">
+        <v>261.69201799</v>
+      </c>
+      <c r="AI39">
+        <v>275.34206276</v>
+      </c>
+      <c r="AJ39">
+        <v>284.35312044</v>
+      </c>
+      <c r="AK39">
+        <v>294.41800832</v>
+      </c>
+      <c r="AL39">
+        <v>296.79802078</v>
+      </c>
+      <c r="AM39">
+        <v>316.8035144</v>
+      </c>
+      <c r="AN39">
+        <v>330.171</v>
+      </c>
+      <c r="AO39">
+        <v>340.362</v>
+      </c>
+      <c r="AP39">
+        <v>362.612</v>
+      </c>
+      <c r="AQ39">
+        <v>375.388</v>
+      </c>
+      <c r="AR39">
+        <v>391.001</v>
+      </c>
+      <c r="AS39">
+        <v>436.967</v>
+      </c>
+      <c r="AT39">
+        <v>445.658</v>
+      </c>
+      <c r="AU39">
+        <v>453.334</v>
+      </c>
+      <c r="AV39">
+        <v>461.812</v>
+      </c>
+      <c r="AW39">
+        <v>494.867</v>
+      </c>
+      <c r="AX39">
+        <v>529.0649999999999</v>
+      </c>
+      <c r="AY39">
+        <v>561.804</v>
+      </c>
+      <c r="AZ39">
+        <v>598.672</v>
+      </c>
+      <c r="BA39">
+        <v>634.528</v>
+      </c>
+      <c r="BB39">
+        <v>582.6279999999999</v>
+      </c>
+      <c r="BC39">
+        <v>637.654</v>
+      </c>
+      <c r="BD39">
+        <v>686.631</v>
+      </c>
+      <c r="BE39">
+        <v>704.046</v>
+      </c>
+      <c r="BF39">
+        <v>707.7</v>
+      </c>
+      <c r="BG39">
+        <v>730.611</v>
+      </c>
+      <c r="BH39">
+        <v>743.7940000000001</v>
+      </c>
+      <c r="BI39">
+        <v>763.72301024</v>
+      </c>
+      <c r="BJ39">
+        <v>799.4762119</v>
+      </c>
+      <c r="BK39">
+        <v>835.9510072</v>
+      </c>
+      <c r="BL39">
+        <v>873.2227614557936</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
-      <c r="A12" t="s">
+    <row r="40" spans="1:64">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>19.785772268273</v>
-      </c>
-      <c r="F12">
-        <v>21.22242778239</v>
-      </c>
-      <c r="G12">
-        <v>22.867580423319</v>
-      </c>
-      <c r="H12">
-        <v>24.9131711136</v>
-      </c>
-      <c r="I12">
-        <v>28.0400613147</v>
-      </c>
-      <c r="J12">
-        <v>30.3779308718</v>
-      </c>
-      <c r="K12">
-        <v>33.2263122937</v>
-      </c>
-      <c r="L12">
-        <v>35.2332649118</v>
-      </c>
-      <c r="M12">
-        <v>38.04583043819999</v>
-      </c>
-      <c r="N12">
-        <v>42.9747491879</v>
-      </c>
-      <c r="O12">
-        <v>48.490099173</v>
-      </c>
-      <c r="P12">
-        <v>52.46840685699999</v>
-      </c>
-      <c r="Q12">
-        <v>57.861278173</v>
-      </c>
-      <c r="R12">
-        <v>68.053932278</v>
-      </c>
-      <c r="S12">
-        <v>83.05971820500001</v>
-      </c>
-      <c r="T12">
-        <v>88.532248352</v>
-      </c>
-      <c r="U12">
-        <v>102.19046329</v>
-      </c>
-      <c r="V12">
-        <v>111.121117945</v>
-      </c>
-      <c r="W12">
-        <v>117.690531096</v>
-      </c>
-      <c r="X12">
-        <v>130.57858266</v>
-      </c>
-      <c r="Y12">
-        <v>142.51145665</v>
-      </c>
-      <c r="Z12">
-        <v>152.39411818</v>
-      </c>
-      <c r="AA12">
-        <v>168.40230574</v>
-      </c>
-      <c r="AB12">
-        <v>178.21653369</v>
-      </c>
-      <c r="AC12">
-        <v>196.81117594</v>
-      </c>
-      <c r="AD12">
-        <v>206.32867564</v>
-      </c>
-      <c r="AE12">
-        <v>207.46041554</v>
-      </c>
-      <c r="AF12">
-        <v>214.97340917</v>
-      </c>
-      <c r="AG12">
-        <v>234.55742011</v>
-      </c>
-      <c r="AH12">
-        <v>261.69201799</v>
-      </c>
-      <c r="AI12">
-        <v>275.34206276</v>
-      </c>
-      <c r="AJ12">
-        <v>284.35312044</v>
-      </c>
-      <c r="AK12">
-        <v>294.41800832</v>
-      </c>
-      <c r="AL12">
-        <v>296.79802078</v>
-      </c>
-      <c r="AM12">
-        <v>316.8035144</v>
-      </c>
-      <c r="AN12">
-        <v>330.171</v>
-      </c>
-      <c r="AO12">
-        <v>340.362</v>
-      </c>
-      <c r="AP12">
-        <v>362.612</v>
-      </c>
-      <c r="AQ12">
-        <v>375.388</v>
-      </c>
-      <c r="AR12">
-        <v>391.001</v>
-      </c>
-      <c r="AS12">
-        <v>436.967</v>
-      </c>
-      <c r="AT12">
-        <v>445.658</v>
-      </c>
-      <c r="AU12">
-        <v>453.334</v>
-      </c>
-      <c r="AV12">
-        <v>461.812</v>
-      </c>
-      <c r="AW12">
-        <v>494.867</v>
-      </c>
-      <c r="AX12">
-        <v>529.0649999999999</v>
-      </c>
-      <c r="AY12">
-        <v>561.804</v>
-      </c>
-      <c r="AZ12">
-        <v>598.672</v>
-      </c>
-      <c r="BA12">
-        <v>634.528</v>
-      </c>
-      <c r="BB12">
-        <v>582.6279999999999</v>
-      </c>
-      <c r="BC12">
-        <v>637.654</v>
-      </c>
-      <c r="BD12">
-        <v>686.631</v>
-      </c>
-      <c r="BE12">
-        <v>704.046</v>
-      </c>
-      <c r="BF12">
-        <v>707.7</v>
-      </c>
-      <c r="BG12">
-        <v>730.611</v>
-      </c>
-      <c r="BH12">
-        <v>743.7940000000001</v>
-      </c>
-      <c r="BI12">
-        <v>763.72301024</v>
-      </c>
-      <c r="BJ12">
-        <v>799.4762119</v>
-      </c>
-      <c r="BK12">
-        <v>835.9510072</v>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>3.460698400273</v>
+      </c>
+      <c r="F40">
+        <v>4.01852706539</v>
+      </c>
+      <c r="G40">
+        <v>4.338184803319001</v>
+      </c>
+      <c r="H40">
+        <v>4.5947583176</v>
+      </c>
+      <c r="I40">
+        <v>5.7800117497</v>
+      </c>
+      <c r="J40">
+        <v>6.1426714418</v>
+      </c>
+      <c r="K40">
+        <v>6.7917248657</v>
+      </c>
+      <c r="L40">
+        <v>7.1526218088</v>
+      </c>
+      <c r="M40">
+        <v>7.299103285199999</v>
+      </c>
+      <c r="N40">
+        <v>8.3106548879</v>
+      </c>
+      <c r="O40">
+        <v>10.14114995</v>
+      </c>
+      <c r="P40">
+        <v>10.341048639</v>
+      </c>
+      <c r="Q40">
+        <v>10.55445395</v>
+      </c>
+      <c r="R40">
+        <v>12.40287415</v>
+      </c>
+      <c r="S40">
+        <v>15.56553244</v>
+      </c>
+      <c r="T40">
+        <v>15.82976211</v>
+      </c>
+      <c r="U40">
+        <v>18.11923851</v>
+      </c>
+      <c r="V40">
+        <v>19.65639517</v>
+      </c>
+      <c r="W40">
+        <v>20.49558008</v>
+      </c>
+      <c r="X40">
+        <v>21.57196459</v>
+      </c>
+      <c r="Y40">
+        <v>24.14272554</v>
+      </c>
+      <c r="Z40">
+        <v>21.56618051</v>
+      </c>
+      <c r="AA40">
+        <v>22.29129481</v>
+      </c>
+      <c r="AB40">
+        <v>20.64483308</v>
+      </c>
+      <c r="AC40">
+        <v>23.37730611</v>
+      </c>
+      <c r="AD40">
+        <v>23.98171084</v>
+      </c>
+      <c r="AE40">
+        <v>24.59435194</v>
+      </c>
+      <c r="AF40">
+        <v>26.96196833</v>
+      </c>
+      <c r="AG40">
+        <v>32.08607146</v>
+      </c>
+      <c r="AH40">
+        <v>37.46928759</v>
+      </c>
+      <c r="AI40">
+        <v>41.18287152</v>
+      </c>
+      <c r="AJ40">
+        <v>40.45444773</v>
+      </c>
+      <c r="AK40">
+        <v>42.00895611</v>
+      </c>
+      <c r="AL40">
+        <v>41.9725152</v>
+      </c>
+      <c r="AM40">
+        <v>44.26287264</v>
+      </c>
+      <c r="AN40">
+        <v>46.184</v>
+      </c>
+      <c r="AO40">
+        <v>46.796</v>
+      </c>
+      <c r="AP40">
+        <v>50.38</v>
+      </c>
+      <c r="AQ40">
+        <v>52.564</v>
+      </c>
+      <c r="AR40">
+        <v>55.47</v>
+      </c>
+      <c r="AS40">
+        <v>61.41</v>
+      </c>
+      <c r="AT40">
+        <v>60.047</v>
+      </c>
+      <c r="AU40">
+        <v>56.841</v>
+      </c>
+      <c r="AV40">
+        <v>58.96</v>
+      </c>
+      <c r="AW40">
+        <v>67.194</v>
+      </c>
+      <c r="AX40">
+        <v>73.538</v>
+      </c>
+      <c r="AY40">
+        <v>78.021</v>
+      </c>
+      <c r="AZ40">
+        <v>84.273</v>
+      </c>
+      <c r="BA40">
+        <v>91.10299999999999</v>
+      </c>
+      <c r="BB40">
+        <v>75.56099999999999</v>
+      </c>
+      <c r="BC40">
+        <v>82.849</v>
+      </c>
+      <c r="BD40">
+        <v>90.94799999999999</v>
+      </c>
+      <c r="BE40">
+        <v>89.91800000000001</v>
+      </c>
+      <c r="BF40">
+        <v>86.95399999999999</v>
+      </c>
+      <c r="BG40">
+        <v>92.702</v>
+      </c>
+      <c r="BH40">
+        <v>95.247</v>
+      </c>
+      <c r="BI40">
+        <v>96.07313334</v>
+      </c>
+      <c r="BJ40">
+        <v>99.204992</v>
+      </c>
+      <c r="BK40">
+        <v>103.6842312</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
-      <c r="A13" t="s">
+    <row r="41" spans="1:64">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
         <v>3.460698400273</v>
       </c>
-      <c r="F13">
+      <c r="F41">
         <v>4.01852706539</v>
       </c>
-      <c r="G13">
+      <c r="G41">
         <v>4.338184803319001</v>
       </c>
-      <c r="H13">
+      <c r="H41">
         <v>4.5947583176</v>
       </c>
-      <c r="I13">
+      <c r="I41">
         <v>5.7800117497</v>
       </c>
-      <c r="J13">
+      <c r="J41">
         <v>6.1426714418</v>
       </c>
-      <c r="K13">
+      <c r="K41">
         <v>6.7917248657</v>
       </c>
-      <c r="L13">
+      <c r="L41">
         <v>7.1526218088</v>
       </c>
-      <c r="M13">
+      <c r="M41">
         <v>7.299103285199999</v>
       </c>
-      <c r="N13">
+      <c r="N41">
         <v>8.3106548879</v>
       </c>
-      <c r="O13">
+      <c r="O41">
         <v>10.14114995</v>
       </c>
-      <c r="P13">
+      <c r="P41">
         <v>10.341048639</v>
       </c>
-      <c r="Q13">
+      <c r="Q41">
         <v>10.55445395</v>
       </c>
-      <c r="R13">
+      <c r="R41">
         <v>12.40287415</v>
       </c>
-      <c r="S13">
+      <c r="S41">
         <v>15.56553244</v>
       </c>
-      <c r="T13">
+      <c r="T41">
         <v>15.82976211</v>
       </c>
-      <c r="U13">
+      <c r="U41">
         <v>18.11923851</v>
       </c>
-      <c r="V13">
+      <c r="V41">
         <v>19.65639517</v>
       </c>
-      <c r="W13">
+      <c r="W41">
         <v>20.49558008</v>
       </c>
-      <c r="X13">
+      <c r="X41">
         <v>21.57196459</v>
       </c>
-      <c r="Y13">
+      <c r="Y41">
         <v>24.14272554</v>
       </c>
-      <c r="Z13">
+      <c r="Z41">
         <v>21.56618051</v>
       </c>
-      <c r="AA13">
+      <c r="AA41">
         <v>22.29129481</v>
       </c>
-      <c r="AB13">
+      <c r="AB41">
         <v>20.64483308</v>
       </c>
-      <c r="AC13">
+      <c r="AC41">
         <v>23.37730611</v>
       </c>
-      <c r="AD13">
+      <c r="AD41">
         <v>23.98171084</v>
       </c>
-      <c r="AE13">
+      <c r="AE41">
         <v>24.59435194</v>
       </c>
-      <c r="AF13">
+      <c r="AF41">
         <v>26.96196833</v>
       </c>
-      <c r="AG13">
+      <c r="AG41">
         <v>32.08607146</v>
       </c>
-      <c r="AH13">
+      <c r="AH41">
         <v>37.46928759</v>
       </c>
-      <c r="AI13">
+      <c r="AI41">
         <v>41.18287152</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ41">
         <v>40.45444773</v>
       </c>
-      <c r="AK13">
+      <c r="AK41">
         <v>42.00895611</v>
       </c>
-      <c r="AL13">
+      <c r="AL41">
         <v>41.9725152</v>
       </c>
-      <c r="AM13">
+      <c r="AM41">
         <v>44.26287264</v>
       </c>
-      <c r="AN13">
+      <c r="AN41">
         <v>46.184</v>
       </c>
-      <c r="AO13">
+      <c r="AO41">
         <v>46.796</v>
       </c>
-      <c r="AP13">
+      <c r="AP41">
         <v>50.38</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ41">
         <v>52.564</v>
       </c>
-      <c r="AR13">
+      <c r="AR41">
         <v>55.47</v>
       </c>
-      <c r="AS13">
+      <c r="AS41">
         <v>61.41</v>
       </c>
-      <c r="AT13">
+      <c r="AT41">
         <v>60.047</v>
       </c>
-      <c r="AU13">
+      <c r="AU41">
         <v>56.841</v>
       </c>
-      <c r="AV13">
+      <c r="AV41">
         <v>58.96</v>
       </c>
-      <c r="AW13">
+      <c r="AW41">
         <v>67.194</v>
       </c>
-      <c r="AX13">
+      <c r="AX41">
         <v>73.538</v>
       </c>
-      <c r="AY13">
+      <c r="AY41">
         <v>78.021</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ41">
         <v>84.273</v>
       </c>
-      <c r="BA13">
+      <c r="BA41">
         <v>91.10299999999999</v>
       </c>
-      <c r="BB13">
+      <c r="BB41">
         <v>75.56099999999999</v>
       </c>
-      <c r="BC13">
+      <c r="BC41">
         <v>82.849</v>
       </c>
-      <c r="BD13">
+      <c r="BD41">
         <v>90.94799999999999</v>
       </c>
-      <c r="BE13">
+      <c r="BE41">
         <v>89.91800000000001</v>
       </c>
-      <c r="BF13">
+      <c r="BF41">
         <v>86.95399999999999</v>
       </c>
-      <c r="BG13">
+      <c r="BG41">
         <v>92.702</v>
       </c>
-      <c r="BH13">
+      <c r="BH41">
         <v>95.247</v>
       </c>
-      <c r="BI13">
+      <c r="BI41">
         <v>96.07313334</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ41">
         <v>99.204992</v>
       </c>
-      <c r="BK13">
+      <c r="BK41">
         <v>103.6842312</v>
+      </c>
+      <c r="BL41">
+        <v>107.8598141741844</v>
       </c>
     </row>
   </sheetData>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -1203,6 +1203,12 @@
       <c r="AC4">
         <v>368.7791</v>
       </c>
+      <c r="AD4">
+        <v>391.2626588110001</v>
+      </c>
+      <c r="AE4">
+        <v>412.5551113083447</v>
+      </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
@@ -1292,6 +1298,12 @@
       <c r="AC5">
         <v>371.8565</v>
       </c>
+      <c r="AD5">
+        <v>394.2290174485</v>
+      </c>
+      <c r="AE5">
+        <v>416.7214275212921</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
@@ -1921,6 +1933,12 @@
       <c r="AC12">
         <v>2.012799999999999</v>
       </c>
+      <c r="AD12">
+        <v>1.862144777000012</v>
+      </c>
+      <c r="AE12">
+        <v>3.139585926351273</v>
+      </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
@@ -2010,6 +2028,12 @@
       <c r="AC13">
         <v>3.077399999999955</v>
       </c>
+      <c r="AD13">
+        <v>2.96635863749998</v>
+      </c>
+      <c r="AE13">
+        <v>4.166316212947322</v>
+      </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
@@ -2265,8 +2289,14 @@
       <c r="AC16">
         <v>92.0646</v>
       </c>
+      <c r="AD16">
+        <v>96.00819525389991</v>
+      </c>
+      <c r="AE16">
+        <v>99.4222724380695</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2354,8 +2384,14 @@
       <c r="AC17">
         <v>21.9499</v>
       </c>
+      <c r="AD17">
+        <v>23.11901260229315</v>
+      </c>
+      <c r="AE17">
+        <v>24.24488483060908</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2532,8 +2568,14 @@
       <c r="AC19" t="s">
         <v>151</v>
       </c>
+      <c r="AD19">
+        <v>443.2633733300499</v>
+      </c>
+      <c r="AE19">
+        <v>457.6293185330783</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2664,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2710,8 +2752,14 @@
       <c r="AC21" t="s">
         <v>152</v>
       </c>
+      <c r="AD21">
+        <v>449.15827333005</v>
+      </c>
+      <c r="AE21">
+        <v>463.5242185330783</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +2848,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2888,8 +2936,14 @@
       <c r="AC23" t="s">
         <v>153</v>
       </c>
+      <c r="AD23">
+        <v>843.38729077855</v>
+      </c>
+      <c r="AE23">
+        <v>880.2456460543705</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2978,7 +3032,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3065,6 +3119,12 @@
       </c>
       <c r="AC25" t="s">
         <v>154</v>
+      </c>
+      <c r="AD25">
+        <v>112.7745918852599</v>
+      </c>
+      <c r="AE25">
+        <v>117.015989963076</v>
       </c>
     </row>
   </sheetData>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -1204,10 +1204,10 @@
         <v>368.7791</v>
       </c>
       <c r="AD4">
-        <v>391.2626588110001</v>
+        <v>403.1172912525</v>
       </c>
       <c r="AE4">
-        <v>412.5551113083447</v>
+        <v>430.6893002302324</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1299,10 +1299,10 @@
         <v>371.8565</v>
       </c>
       <c r="AD5">
-        <v>394.2290174485</v>
+        <v>401.811680049</v>
       </c>
       <c r="AE5">
-        <v>416.7214275212921</v>
+        <v>428.1180825066259</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1483,10 +1483,10 @@
         <v>150</v>
       </c>
       <c r="AD7">
-        <v>10.87149663136</v>
+        <v>1.354794165210821</v>
       </c>
       <c r="AE7">
-        <v>11.6988175250065</v>
+        <v>1.458232699724667</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1934,10 +1934,10 @@
         <v>2.012799999999999</v>
       </c>
       <c r="AD12">
-        <v>1.862144777000012</v>
+        <v>1.648416584999993</v>
       </c>
       <c r="AE12">
-        <v>3.139585926351273</v>
+        <v>1.415650699602679</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2029,10 +2029,10 @@
         <v>3.077399999999955</v>
       </c>
       <c r="AD13">
-        <v>2.96635863749998</v>
+        <v>-1.305611203500007</v>
       </c>
       <c r="AE13">
-        <v>4.166316212947322</v>
+        <v>-2.571217723606537</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2290,10 +2290,10 @@
         <v>92.0646</v>
       </c>
       <c r="AD16">
-        <v>96.00819525389991</v>
+        <v>109.8692829173223</v>
       </c>
       <c r="AE16">
-        <v>99.4222724380695</v>
+        <v>117.1512687879092</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2385,10 +2385,10 @@
         <v>21.9499</v>
       </c>
       <c r="AD17">
-        <v>23.11901260229315</v>
+        <v>24.53359160571212</v>
       </c>
       <c r="AE17">
-        <v>24.24488483060908</v>
+        <v>27.01093567694465</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2569,10 +2569,10 @@
         <v>151</v>
       </c>
       <c r="AD19">
-        <v>443.2633733300499</v>
+        <v>356.4429954781211</v>
       </c>
       <c r="AE19">
-        <v>457.6293185330783</v>
+        <v>377.4615180343461</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2753,10 +2753,10 @@
         <v>152</v>
       </c>
       <c r="AD21">
-        <v>449.15827333005</v>
+        <v>362.3378954781211</v>
       </c>
       <c r="AE21">
-        <v>463.5242185330783</v>
+        <v>383.3564180343461</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2937,10 +2937,10 @@
         <v>153</v>
       </c>
       <c r="AD23">
-        <v>843.38729077855</v>
+        <v>764.149575527121</v>
       </c>
       <c r="AE23">
-        <v>880.2456460543705</v>
+        <v>811.474500540972</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -3121,10 +3121,10 @@
         <v>154</v>
       </c>
       <c r="AD25">
-        <v>112.7745918852599</v>
+        <v>117.1189770825331</v>
       </c>
       <c r="AE25">
-        <v>117.015989963076</v>
+        <v>124.5044014876338</v>
       </c>
     </row>
   </sheetData>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="155">
   <si>
     <t>Country Ameco</t>
   </si>
@@ -950,80 +950,77 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>102.77649041</v>
-      </c>
-      <c r="F2">
-        <v>112.35053907</v>
-      </c>
-      <c r="G2">
-        <v>118.555</v>
-      </c>
       <c r="H2">
-        <v>124.4202</v>
+        <v>4.976929999999999</v>
       </c>
       <c r="I2">
-        <v>136.6431</v>
+        <v>6.45338</v>
       </c>
       <c r="J2">
-        <v>140.8983</v>
+        <v>6.579610000000001</v>
       </c>
       <c r="K2">
-        <v>146.7762</v>
+        <v>5.389709999999999</v>
       </c>
       <c r="L2">
-        <v>178.7451</v>
+        <v>5.9794</v>
       </c>
       <c r="M2">
-        <v>179.8699</v>
+        <v>7.02736</v>
       </c>
       <c r="N2">
-        <v>178.27</v>
+        <v>8.059850000000001</v>
       </c>
       <c r="O2">
-        <v>179.1752</v>
+        <v>8.66032</v>
       </c>
       <c r="P2">
-        <v>196.157</v>
+        <v>9.91839</v>
       </c>
       <c r="Q2">
-        <v>217.5849</v>
+        <v>12.82712</v>
       </c>
       <c r="R2">
-        <v>235.1404</v>
+        <v>15.86431</v>
       </c>
       <c r="S2">
-        <v>253.9593</v>
+        <v>18.43592</v>
       </c>
       <c r="T2">
-        <v>280.4629</v>
+        <v>22.46574</v>
       </c>
       <c r="U2">
-        <v>233.8472</v>
+        <v>14.44229</v>
       </c>
       <c r="V2">
-        <v>272.5538</v>
+        <v>18.84009</v>
       </c>
       <c r="W2">
-        <v>307.5239</v>
+        <v>24.25271</v>
       </c>
       <c r="X2">
-        <v>316.5455</v>
+        <v>26.9332</v>
       </c>
       <c r="Y2">
-        <v>315.7878</v>
+        <v>28.95062</v>
       </c>
       <c r="Z2">
-        <v>328.1997</v>
+        <v>28.8985</v>
       </c>
       <c r="AA2">
-        <v>325.9141</v>
+        <v>28.56265</v>
       </c>
       <c r="AB2">
-        <v>344.9342</v>
+        <v>28.28923</v>
       </c>
       <c r="AC2">
-        <v>368.7791</v>
+        <v>33.18996</v>
+      </c>
+      <c r="AD2">
+        <v>36.25961776425</v>
+      </c>
+      <c r="AE2">
+        <v>38.73026872054696</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1039,80 +1036,77 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>108.90801174</v>
-      </c>
-      <c r="F3">
-        <v>119.86414491</v>
-      </c>
-      <c r="G3">
-        <v>125.8853</v>
-      </c>
       <c r="H3">
-        <v>130.5216</v>
+        <v>4.074149999999999</v>
       </c>
       <c r="I3">
-        <v>144.3867</v>
+        <v>5.27206</v>
       </c>
       <c r="J3">
-        <v>148.66</v>
+        <v>5.094810000000001</v>
       </c>
       <c r="K3">
-        <v>156.0573</v>
+        <v>4.12054</v>
       </c>
       <c r="L3">
-        <v>185.5521</v>
+        <v>5.15286</v>
       </c>
       <c r="M3">
-        <v>188.7639</v>
+        <v>6.25164</v>
       </c>
       <c r="N3">
-        <v>193.4114</v>
+        <v>7.197030000000001</v>
       </c>
       <c r="O3">
-        <v>193.8776</v>
+        <v>7.69579</v>
       </c>
       <c r="P3">
-        <v>210.2027</v>
+        <v>8.63495</v>
       </c>
       <c r="Q3">
-        <v>229.0045</v>
+        <v>11.30814</v>
       </c>
       <c r="R3">
-        <v>247.3196</v>
+        <v>13.3929</v>
       </c>
       <c r="S3">
-        <v>267.1206</v>
+        <v>14.62438</v>
       </c>
       <c r="T3">
-        <v>282.1763</v>
+        <v>18.68233</v>
       </c>
       <c r="U3">
-        <v>241.7394</v>
+        <v>13.98973</v>
       </c>
       <c r="V3">
-        <v>279.1137</v>
+        <v>18.31387</v>
       </c>
       <c r="W3">
-        <v>309.4855</v>
+        <v>23.45505</v>
       </c>
       <c r="X3">
-        <v>318.9352</v>
+        <v>27.22007</v>
       </c>
       <c r="Y3">
-        <v>320.6605</v>
+        <v>29.38787</v>
       </c>
       <c r="Z3">
-        <v>330.7365</v>
+        <v>29.65803</v>
       </c>
       <c r="AA3">
-        <v>331.4916</v>
+        <v>28.38316</v>
       </c>
       <c r="AB3">
-        <v>350.5594</v>
+        <v>28.78913</v>
       </c>
       <c r="AC3">
-        <v>371.8565</v>
+        <v>34.03309</v>
+      </c>
+      <c r="AD3">
+        <v>36.75403006857</v>
+      </c>
+      <c r="AE3">
+        <v>39.15729674520878</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1318,80 +1312,77 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" t="s">
-        <v>100</v>
-      </c>
-      <c r="T6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" t="s">
-        <v>110</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" t="s">
-        <v>120</v>
-      </c>
-      <c r="X6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>150</v>
+      <c r="H6">
+        <v>0.23119</v>
+      </c>
+      <c r="I6">
+        <v>0.26547</v>
+      </c>
+      <c r="J6">
+        <v>0.32952</v>
+      </c>
+      <c r="K6">
+        <v>0.32614</v>
+      </c>
+      <c r="L6">
+        <v>0.32396</v>
+      </c>
+      <c r="M6">
+        <v>0.32343</v>
+      </c>
+      <c r="N6">
+        <v>0.45168</v>
+      </c>
+      <c r="O6">
+        <v>0.5129900000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.65777</v>
+      </c>
+      <c r="Q6">
+        <v>0.75748</v>
+      </c>
+      <c r="R6">
+        <v>1.02933</v>
+      </c>
+      <c r="S6">
+        <v>1.57236</v>
+      </c>
+      <c r="T6">
+        <v>1.75915</v>
+      </c>
+      <c r="U6">
+        <v>1.1892</v>
+      </c>
+      <c r="V6">
+        <v>1.39093</v>
+      </c>
+      <c r="W6">
+        <v>1.47923</v>
+      </c>
+      <c r="X6">
+        <v>1.32633</v>
+      </c>
+      <c r="Y6">
+        <v>1.30948</v>
+      </c>
+      <c r="Z6">
+        <v>1.28298</v>
+      </c>
+      <c r="AA6">
+        <v>1.37451</v>
+      </c>
+      <c r="AB6">
+        <v>1.15359</v>
+      </c>
+      <c r="AC6">
+        <v>1.2369138057</v>
+      </c>
+      <c r="AD6">
+        <v>1.354794165210821</v>
+      </c>
+      <c r="AE6">
+        <v>1.458232699724667</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1502,80 +1493,77 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>3.396752179999993</v>
-      </c>
-      <c r="F8">
-        <v>3.782323009999999</v>
-      </c>
-      <c r="G8">
-        <v>5.593699999999998</v>
-      </c>
       <c r="H8">
-        <v>4.183999999999997</v>
+        <v>-1.156929999999999</v>
       </c>
       <c r="I8">
-        <v>5.483000000000004</v>
+        <v>-1.45481</v>
       </c>
       <c r="J8">
-        <v>5.967600000000004</v>
+        <v>-1.89146</v>
       </c>
       <c r="K8">
-        <v>7.511099999999999</v>
+        <v>-1.755549999999999</v>
       </c>
       <c r="L8">
-        <v>4.429399999999987</v>
+        <v>-1.40932</v>
       </c>
       <c r="M8">
-        <v>6.344700000000017</v>
+        <v>-1.416309999999999</v>
       </c>
       <c r="N8">
-        <v>13.72310000000002</v>
+        <v>-1.54653</v>
       </c>
       <c r="O8">
-        <v>12.72370000000001</v>
+        <v>-1.63113</v>
       </c>
       <c r="P8">
-        <v>10.3647</v>
+        <v>-2.16976</v>
       </c>
       <c r="Q8">
-        <v>6.599400000000003</v>
+        <v>-2.29608</v>
       </c>
       <c r="R8">
-        <v>7.544000000000011</v>
+        <v>-3.31889</v>
       </c>
       <c r="S8">
-        <v>7.687900000000013</v>
+        <v>-4.407640000000001</v>
       </c>
       <c r="T8">
-        <v>-4.421400000000006</v>
+        <v>-4.366539999999999</v>
       </c>
       <c r="U8">
-        <v>-0.1266999999999996</v>
+        <v>-1.16733</v>
       </c>
       <c r="V8">
-        <v>-2.111400000000003</v>
+        <v>-1.648330000000003</v>
       </c>
       <c r="W8">
-        <v>-5.707400000000007</v>
+        <v>-2.065029999999997</v>
       </c>
       <c r="X8">
-        <v>-4.921199999999999</v>
+        <v>-1.102439999999998</v>
       </c>
       <c r="Y8">
-        <v>-2.667100000000005</v>
+        <v>-0.9199300000000008</v>
       </c>
       <c r="Z8">
-        <v>-3.079100000000011</v>
+        <v>-0.9367800000000024</v>
       </c>
       <c r="AA8">
-        <v>0.2894000000000005</v>
+        <v>-1.986889999999999</v>
       </c>
       <c r="AB8">
-        <v>1.131399999999985</v>
+        <v>-1.768439999999998</v>
       </c>
       <c r="AC8">
-        <v>1.064599999999984</v>
+        <v>-2.060949999999998</v>
+      </c>
+      <c r="AD8">
+        <v>-2.647126346429996</v>
+      </c>
+      <c r="AE8">
+        <v>-2.906922619718749</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1591,80 +1579,77 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>2.734769150000002</v>
-      </c>
-      <c r="F9">
-        <v>3.731282829999998</v>
-      </c>
-      <c r="G9">
-        <v>1.736599999999999</v>
-      </c>
       <c r="H9">
-        <v>1.917400000000001</v>
+        <v>0.2541499999999999</v>
       </c>
       <c r="I9">
-        <v>2.260599999999997</v>
+        <v>0.27349</v>
       </c>
       <c r="J9">
-        <v>1.7941</v>
+        <v>0.4066600000000002</v>
       </c>
       <c r="K9">
-        <v>1.769999999999996</v>
+        <v>0.48638</v>
       </c>
       <c r="L9">
-        <v>2.377599999999994</v>
+        <v>0.58278</v>
       </c>
       <c r="M9">
-        <v>2.549300000000002</v>
+        <v>0.6405899999999999</v>
       </c>
       <c r="N9">
-        <v>1.418300000000002</v>
+        <v>0.68371</v>
       </c>
       <c r="O9">
-        <v>1.978699999999996</v>
+        <v>0.6665999999999999</v>
       </c>
       <c r="P9">
-        <v>3.681000000000004</v>
+        <v>0.88632</v>
       </c>
       <c r="Q9">
-        <v>4.8202</v>
+        <v>0.7771000000000001</v>
       </c>
       <c r="R9">
-        <v>4.635199999999998</v>
+        <v>0.84748</v>
       </c>
       <c r="S9">
-        <v>5.473399999999998</v>
+        <v>0.5960999999999999</v>
       </c>
       <c r="T9">
-        <v>6.134800000000006</v>
+        <v>0.5831299999999997</v>
       </c>
       <c r="U9">
-        <v>8.018899999999995</v>
+        <v>0.7147700000000006</v>
       </c>
       <c r="V9">
-        <v>8.671300000000002</v>
+        <v>1.12211</v>
       </c>
       <c r="W9">
-        <v>7.668999999999997</v>
+        <v>1.26737</v>
       </c>
       <c r="X9">
-        <v>7.310900000000004</v>
+        <v>1.38931</v>
       </c>
       <c r="Y9">
-        <v>7.5398</v>
+        <v>1.35718</v>
       </c>
       <c r="Z9">
-        <v>5.615899999999996</v>
+        <v>1.69631</v>
       </c>
       <c r="AA9">
-        <v>5.2881</v>
+        <v>1.8074</v>
       </c>
       <c r="AB9">
-        <v>4.493800000000007</v>
+        <v>2.26834</v>
       </c>
       <c r="AC9">
-        <v>2.012799999999999</v>
+        <v>2.90408</v>
+      </c>
+      <c r="AD9">
+        <v>3.141538650749999</v>
+      </c>
+      <c r="AE9">
+        <v>3.333950644380566</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1680,80 +1665,77 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>6.131521329999984</v>
-      </c>
-      <c r="F10">
-        <v>7.513605839999997</v>
-      </c>
-      <c r="G10">
-        <v>7.330299999999994</v>
-      </c>
       <c r="H10">
-        <v>6.101400000000012</v>
+        <v>-0.9027799999999999</v>
       </c>
       <c r="I10">
-        <v>7.743600000000015</v>
+        <v>-1.18132</v>
       </c>
       <c r="J10">
-        <v>7.76169999999999</v>
+        <v>-1.4848</v>
       </c>
       <c r="K10">
-        <v>9.281099999999981</v>
+        <v>-1.269169999999999</v>
       </c>
       <c r="L10">
-        <v>6.806999999999988</v>
+        <v>-0.8265399999999996</v>
       </c>
       <c r="M10">
-        <v>8.894000000000005</v>
+        <v>-0.7757199999999997</v>
       </c>
       <c r="N10">
-        <v>15.14140000000003</v>
+        <v>-0.8628200000000001</v>
       </c>
       <c r="O10">
-        <v>14.70240000000001</v>
+        <v>-0.9645300000000008</v>
       </c>
       <c r="P10">
-        <v>14.04570000000001</v>
+        <v>-1.283440000000001</v>
       </c>
       <c r="Q10">
-        <v>11.4196</v>
+        <v>-1.518980000000001</v>
       </c>
       <c r="R10">
-        <v>12.17920000000001</v>
+        <v>-2.471410000000001</v>
       </c>
       <c r="S10">
-        <v>13.16130000000004</v>
+        <v>-3.811539999999999</v>
       </c>
       <c r="T10">
-        <v>1.713399999999979</v>
+        <v>-3.78341</v>
       </c>
       <c r="U10">
-        <v>7.892200000000003</v>
+        <v>-0.4525599999999983</v>
       </c>
       <c r="V10">
-        <v>6.559899999999971</v>
+        <v>-0.5262200000000021</v>
       </c>
       <c r="W10">
-        <v>1.961599999999976</v>
+        <v>-0.7976599999999969</v>
       </c>
       <c r="X10">
-        <v>2.389700000000005</v>
+        <v>0.2868700000000004</v>
       </c>
       <c r="Y10">
-        <v>4.872699999999952</v>
+        <v>0.4372499999999988</v>
       </c>
       <c r="Z10">
-        <v>2.536799999999971</v>
+        <v>0.759529999999998</v>
       </c>
       <c r="AA10">
-        <v>5.577499999999986</v>
+        <v>-0.1794899999999977</v>
       </c>
       <c r="AB10">
-        <v>5.62519999999995</v>
+        <v>0.4999000000000002</v>
       </c>
       <c r="AC10">
-        <v>3.077399999999955</v>
+        <v>0.8431300000000022</v>
+      </c>
+      <c r="AD10">
+        <v>0.4944123043200008</v>
+      </c>
+      <c r="AE10">
+        <v>0.4270280246618157</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1769,80 +1751,77 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>3.396752179999993</v>
-      </c>
-      <c r="F11">
-        <v>3.782323009999999</v>
-      </c>
-      <c r="G11">
-        <v>5.593699999999998</v>
-      </c>
       <c r="H11">
-        <v>4.183999999999997</v>
+        <v>-1.156929999999999</v>
       </c>
       <c r="I11">
-        <v>5.483000000000004</v>
+        <v>-1.45481</v>
       </c>
       <c r="J11">
-        <v>5.967600000000004</v>
+        <v>-1.89146</v>
       </c>
       <c r="K11">
-        <v>7.511099999999999</v>
+        <v>-1.755549999999999</v>
       </c>
       <c r="L11">
-        <v>4.429399999999987</v>
+        <v>-1.40932</v>
       </c>
       <c r="M11">
-        <v>6.344700000000017</v>
+        <v>-1.416309999999999</v>
       </c>
       <c r="N11">
-        <v>13.72310000000002</v>
+        <v>-1.54653</v>
       </c>
       <c r="O11">
-        <v>12.72370000000001</v>
+        <v>-1.63113</v>
       </c>
       <c r="P11">
-        <v>10.3647</v>
+        <v>-2.16976</v>
       </c>
       <c r="Q11">
-        <v>6.599400000000003</v>
+        <v>-2.29608</v>
       </c>
       <c r="R11">
-        <v>7.544000000000011</v>
+        <v>-3.31889</v>
       </c>
       <c r="S11">
-        <v>7.687900000000013</v>
+        <v>-4.407640000000001</v>
       </c>
       <c r="T11">
-        <v>-4.421400000000006</v>
+        <v>-4.366539999999999</v>
       </c>
       <c r="U11">
-        <v>-0.1266999999999996</v>
+        <v>-1.16733</v>
       </c>
       <c r="V11">
-        <v>-2.111400000000003</v>
+        <v>-1.648330000000003</v>
       </c>
       <c r="W11">
-        <v>-5.707400000000007</v>
+        <v>-2.065029999999997</v>
       </c>
       <c r="X11">
-        <v>-4.921199999999999</v>
+        <v>-1.102439999999998</v>
       </c>
       <c r="Y11">
-        <v>-2.667100000000005</v>
+        <v>-0.9199300000000008</v>
       </c>
       <c r="Z11">
-        <v>-3.079100000000011</v>
+        <v>-0.9367800000000024</v>
       </c>
       <c r="AA11">
-        <v>0.2894000000000005</v>
+        <v>-1.986889999999999</v>
       </c>
       <c r="AB11">
-        <v>1.131399999999985</v>
+        <v>-1.768439999999998</v>
       </c>
       <c r="AC11">
-        <v>1.064599999999984</v>
+        <v>-2.060949999999998</v>
+      </c>
+      <c r="AD11">
+        <v>-2.647126346429996</v>
+      </c>
+      <c r="AE11">
+        <v>-2.906922619718749</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -2048,74 +2027,77 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="G14">
-        <v>40.2863</v>
-      </c>
       <c r="H14">
-        <v>41.3374</v>
+        <v>1.76765</v>
       </c>
       <c r="I14">
-        <v>44.6297</v>
+        <v>2.35726</v>
       </c>
       <c r="J14">
-        <v>46.4058</v>
+        <v>2.78061</v>
       </c>
       <c r="K14">
-        <v>48.412</v>
+        <v>2.46418</v>
       </c>
       <c r="L14">
-        <v>51.8045</v>
+        <v>2.23273</v>
       </c>
       <c r="M14">
-        <v>53.7852</v>
+        <v>2.58861</v>
       </c>
       <c r="N14">
-        <v>50.9998</v>
+        <v>2.69422</v>
       </c>
       <c r="O14">
-        <v>51.6772</v>
+        <v>3.077290000000001</v>
       </c>
       <c r="P14">
-        <v>57.587</v>
+        <v>3.51823</v>
       </c>
       <c r="Q14">
-        <v>62.3921</v>
+        <v>4.1539</v>
       </c>
       <c r="R14">
-        <v>66.5754</v>
+        <v>5.21357</v>
       </c>
       <c r="S14">
-        <v>73.0641</v>
+        <v>6.72631</v>
       </c>
       <c r="T14">
-        <v>77.4691</v>
+        <v>6.75417</v>
       </c>
       <c r="U14">
-        <v>70.6497</v>
+        <v>3.62132</v>
       </c>
       <c r="V14">
-        <v>71.26689999999999</v>
+        <v>3.33537</v>
       </c>
       <c r="W14">
-        <v>76.3347</v>
+        <v>4.30188</v>
       </c>
       <c r="X14">
-        <v>78.0283</v>
+        <v>4.4617</v>
       </c>
       <c r="Y14">
-        <v>77.69340000000001</v>
+        <v>5.1454</v>
       </c>
       <c r="Z14">
-        <v>82.74440000000001</v>
+        <v>5.622509999999999</v>
       </c>
       <c r="AA14">
-        <v>85.559</v>
+        <v>5.95071</v>
       </c>
       <c r="AB14">
-        <v>89.76379999999999</v>
+        <v>6.16061</v>
       </c>
       <c r="AC14">
-        <v>92.0646</v>
+        <v>6.643476194300001</v>
+      </c>
+      <c r="AD14">
+        <v>7.257724207739177</v>
+      </c>
+      <c r="AE14">
+        <v>7.726168174293552</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2131,80 +2113,77 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="E15">
-        <v>10.23647199</v>
-      </c>
-      <c r="F15">
-        <v>10.74532264</v>
-      </c>
-      <c r="G15">
-        <v>10.198</v>
-      </c>
       <c r="H15">
-        <v>10.9178</v>
+        <v>0.8736999999999999</v>
       </c>
       <c r="I15">
-        <v>11.0371</v>
+        <v>1.18252</v>
       </c>
       <c r="J15">
-        <v>11.7542</v>
+        <v>1.56789</v>
       </c>
       <c r="K15">
-        <v>11.6897</v>
+        <v>1.4333</v>
       </c>
       <c r="L15">
-        <v>11.6738</v>
+        <v>1.14871</v>
       </c>
       <c r="M15">
-        <v>11.6904</v>
+        <v>1.27318</v>
       </c>
       <c r="N15">
-        <v>10.985</v>
+        <v>1.46495</v>
       </c>
       <c r="O15">
-        <v>11.3817</v>
+        <v>1.79061</v>
       </c>
       <c r="P15">
-        <v>12.7782</v>
+        <v>1.85897</v>
       </c>
       <c r="Q15">
-        <v>12.9636</v>
+        <v>2.27155</v>
       </c>
       <c r="R15">
-        <v>13.4911</v>
+        <v>3.04115</v>
       </c>
       <c r="S15">
-        <v>15.0052</v>
+        <v>4.216710000000001</v>
       </c>
       <c r="T15">
-        <v>16.3254</v>
+        <v>4.43937</v>
       </c>
       <c r="U15">
-        <v>17.0916</v>
+        <v>2.23874</v>
       </c>
       <c r="V15">
-        <v>16.6769</v>
+        <v>2.18391</v>
       </c>
       <c r="W15">
-        <v>19.7035</v>
+        <v>2.68104</v>
       </c>
       <c r="X15">
-        <v>21.3172</v>
+        <v>2.61709</v>
       </c>
       <c r="Y15">
-        <v>21.0422</v>
+        <v>2.9167</v>
       </c>
       <c r="Z15">
-        <v>20.7431</v>
+        <v>3.16281</v>
       </c>
       <c r="AA15">
-        <v>20.1499</v>
+        <v>3.04437</v>
       </c>
       <c r="AB15">
-        <v>20.7062</v>
+        <v>2.62446</v>
       </c>
       <c r="AC15">
-        <v>21.9499</v>
+        <v>2.97195</v>
+      </c>
+      <c r="AD15">
+        <v>3.269575932749999</v>
+      </c>
+      <c r="AE15">
+        <v>3.542968063518755</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2404,80 +2383,77 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" t="s">
-        <v>96</v>
-      </c>
-      <c r="S18" t="s">
-        <v>101</v>
-      </c>
-      <c r="T18" t="s">
-        <v>106</v>
-      </c>
-      <c r="U18" t="s">
-        <v>111</v>
-      </c>
-      <c r="V18" t="s">
-        <v>116</v>
-      </c>
-      <c r="W18" t="s">
-        <v>121</v>
-      </c>
-      <c r="X18" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>151</v>
+      <c r="H18">
+        <v>10.57025</v>
+      </c>
+      <c r="I18">
+        <v>12.64721</v>
+      </c>
+      <c r="J18">
+        <v>14.44791</v>
+      </c>
+      <c r="K18">
+        <v>14.05842</v>
+      </c>
+      <c r="L18">
+        <v>14.24371</v>
+      </c>
+      <c r="M18">
+        <v>15.18251</v>
+      </c>
+      <c r="N18">
+        <v>16.07424</v>
+      </c>
+      <c r="O18">
+        <v>17.58937</v>
+      </c>
+      <c r="P18">
+        <v>19.56057</v>
+      </c>
+      <c r="Q18">
+        <v>22.38087</v>
+      </c>
+      <c r="R18">
+        <v>26.35824</v>
+      </c>
+      <c r="S18">
+        <v>31.82611</v>
+      </c>
+      <c r="T18">
+        <v>35.87495000000001</v>
+      </c>
+      <c r="U18">
+        <v>28.86574</v>
+      </c>
+      <c r="V18">
+        <v>28.23522000000001</v>
+      </c>
+      <c r="W18">
+        <v>31.06228</v>
+      </c>
+      <c r="X18">
+        <v>32.38879</v>
+      </c>
+      <c r="Y18">
+        <v>34.17355999999999</v>
+      </c>
+      <c r="Z18">
+        <v>35.75564</v>
+      </c>
+      <c r="AA18">
+        <v>37.22763</v>
+      </c>
+      <c r="AB18">
+        <v>38.81441</v>
+      </c>
+      <c r="AC18">
+        <v>41.58883</v>
+      </c>
+      <c r="AD18">
+        <v>44.370103413438</v>
+      </c>
+      <c r="AE18">
+        <v>46.90264180308414</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2588,80 +2564,77 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" t="s">
-        <v>97</v>
-      </c>
-      <c r="S20" t="s">
-        <v>102</v>
-      </c>
-      <c r="T20" t="s">
-        <v>107</v>
-      </c>
-      <c r="U20" t="s">
-        <v>112</v>
-      </c>
-      <c r="V20" t="s">
-        <v>117</v>
-      </c>
-      <c r="W20" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>152</v>
+      <c r="H20">
+        <v>10.61693</v>
+      </c>
+      <c r="I20">
+        <v>12.90567</v>
+      </c>
+      <c r="J20">
+        <v>14.50675</v>
+      </c>
+      <c r="K20">
+        <v>13.98126</v>
+      </c>
+      <c r="L20">
+        <v>14.19473</v>
+      </c>
+      <c r="M20">
+        <v>14.97024</v>
+      </c>
+      <c r="N20">
+        <v>16.065</v>
+      </c>
+      <c r="O20">
+        <v>17.633</v>
+      </c>
+      <c r="P20">
+        <v>19.52116</v>
+      </c>
+      <c r="Q20">
+        <v>22.52133</v>
+      </c>
+      <c r="R20">
+        <v>26.55058</v>
+      </c>
+      <c r="S20">
+        <v>32.85218999999999</v>
+      </c>
+      <c r="T20">
+        <v>36.47969000000001</v>
+      </c>
+      <c r="U20">
+        <v>27.38737</v>
+      </c>
+      <c r="V20">
+        <v>28.55387000000001</v>
+      </c>
+      <c r="W20">
+        <v>32.07298</v>
+      </c>
+      <c r="X20">
+        <v>33.06161</v>
+      </c>
+      <c r="Y20">
+        <v>34.52240999999999</v>
+      </c>
+      <c r="Z20">
+        <v>35.80876</v>
+      </c>
+      <c r="AA20">
+        <v>37.6061</v>
+      </c>
+      <c r="AB20">
+        <v>38.16843</v>
+      </c>
+      <c r="AC20">
+        <v>40.94285</v>
+      </c>
+      <c r="AD20">
+        <v>43.72412341343799</v>
+      </c>
+      <c r="AE20">
+        <v>46.25666180308414</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2772,80 +2745,77 @@
       <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>93</v>
-      </c>
-      <c r="R22" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T22" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" t="s">
-        <v>113</v>
-      </c>
-      <c r="V22" t="s">
-        <v>118</v>
-      </c>
-      <c r="W22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X22" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>153</v>
+      <c r="H22">
+        <v>14.69108</v>
+      </c>
+      <c r="I22">
+        <v>18.17773</v>
+      </c>
+      <c r="J22">
+        <v>19.60156</v>
+      </c>
+      <c r="K22">
+        <v>18.1018</v>
+      </c>
+      <c r="L22">
+        <v>19.34759</v>
+      </c>
+      <c r="M22">
+        <v>21.22188</v>
+      </c>
+      <c r="N22">
+        <v>23.26203</v>
+      </c>
+      <c r="O22">
+        <v>25.32879</v>
+      </c>
+      <c r="P22">
+        <v>28.15611000000001</v>
+      </c>
+      <c r="Q22">
+        <v>33.82947000000001</v>
+      </c>
+      <c r="R22">
+        <v>39.94348</v>
+      </c>
+      <c r="S22">
+        <v>47.47657</v>
+      </c>
+      <c r="T22">
+        <v>55.16202000000001</v>
+      </c>
+      <c r="U22">
+        <v>41.37710000000001</v>
+      </c>
+      <c r="V22">
+        <v>46.86774000000001</v>
+      </c>
+      <c r="W22">
+        <v>55.52803</v>
+      </c>
+      <c r="X22">
+        <v>60.28168</v>
+      </c>
+      <c r="Y22">
+        <v>63.91027999999999</v>
+      </c>
+      <c r="Z22">
+        <v>65.46678999999999</v>
+      </c>
+      <c r="AA22">
+        <v>65.98926</v>
+      </c>
+      <c r="AB22">
+        <v>66.95756</v>
+      </c>
+      <c r="AC22">
+        <v>74.97593999999999</v>
+      </c>
+      <c r="AD22">
+        <v>80.47815348200798</v>
+      </c>
+      <c r="AE22">
+        <v>85.41395854829291</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2956,80 +2926,77 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" t="s">
-        <v>99</v>
-      </c>
-      <c r="S24" t="s">
-        <v>104</v>
-      </c>
-      <c r="T24" t="s">
-        <v>109</v>
-      </c>
-      <c r="U24" t="s">
-        <v>114</v>
-      </c>
-      <c r="V24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W24" t="s">
-        <v>124</v>
-      </c>
-      <c r="X24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>154</v>
+      <c r="H24">
+        <v>2.04552</v>
+      </c>
+      <c r="I24">
+        <v>2.88119</v>
+      </c>
+      <c r="J24">
+        <v>3.16897</v>
+      </c>
+      <c r="K24">
+        <v>2.71316</v>
+      </c>
+      <c r="L24">
+        <v>2.50771</v>
+      </c>
+      <c r="M24">
+        <v>2.69977</v>
+      </c>
+      <c r="N24">
+        <v>3.13666</v>
+      </c>
+      <c r="O24">
+        <v>3.63391</v>
+      </c>
+      <c r="P24">
+        <v>4.13659</v>
+      </c>
+      <c r="Q24">
+        <v>5.05184</v>
+      </c>
+      <c r="R24">
+        <v>6.435239999999999</v>
+      </c>
+      <c r="S24">
+        <v>9.32475</v>
+      </c>
+      <c r="T24">
+        <v>9.11806</v>
+      </c>
+      <c r="U24">
+        <v>3.33215</v>
+      </c>
+      <c r="V24">
+        <v>5.04495</v>
+      </c>
+      <c r="W24">
+        <v>6.79181</v>
+      </c>
+      <c r="X24">
+        <v>6.46085</v>
+      </c>
+      <c r="Y24">
+        <v>6.80373</v>
+      </c>
+      <c r="Z24">
+        <v>6.958609999999999</v>
+      </c>
+      <c r="AA24">
+        <v>7.70369</v>
+      </c>
+      <c r="AB24">
+        <v>6.66822</v>
+      </c>
+      <c r="AC24">
+        <v>7.23441</v>
+      </c>
+      <c r="AD24">
+        <v>7.966538372949998</v>
+      </c>
+      <c r="AE24">
+        <v>8.53842087401822</v>
       </c>
     </row>
     <row r="25" spans="1:31">

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>Country Ameco</t>
   </si>
@@ -107,378 +107,6 @@
   </si>
   <si>
     <t>billions</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>104.982809441.5006071340.93415658</t>
-  </si>
-  <si>
-    <t>104.982809441.5006071340.934156580.472</t>
-  </si>
-  <si>
-    <t>104.982809441.5006071340.934156580.47282.0658005926.84221115</t>
-  </si>
-  <si>
-    <t>41.500607130.472</t>
-  </si>
-  <si>
-    <t>109.926268642.6709671642.74963858</t>
-  </si>
-  <si>
-    <t>109.926268642.6709671642.749638581.592</t>
-  </si>
-  <si>
-    <t>109.926268642.6709671642.749638581.59289.0837121630.78043275</t>
-  </si>
-  <si>
-    <t>42.670967161.592</t>
-  </si>
-  <si>
-    <t>4.8568</t>
-  </si>
-  <si>
-    <t>113.38445.143144.7171</t>
-  </si>
-  <si>
-    <t>113.38445.143144.71711.0413</t>
-  </si>
-  <si>
-    <t>113.38445.143144.71711.0413100.414525.4708</t>
-  </si>
-  <si>
-    <t>45.14311.0413</t>
-  </si>
-  <si>
-    <t>4.6556</t>
-  </si>
-  <si>
-    <t>116.606945.99346.438</t>
-  </si>
-  <si>
-    <t>116.606945.99346.4380.8031</t>
-  </si>
-  <si>
-    <t>116.606945.99346.4380.8031103.979326.5423</t>
-  </si>
-  <si>
-    <t>45.9930.8031</t>
-  </si>
-  <si>
-    <t>4.9722</t>
-  </si>
-  <si>
-    <t>120.491249.601947.3535</t>
-  </si>
-  <si>
-    <t>120.491249.601947.35350.7785</t>
-  </si>
-  <si>
-    <t>120.491249.601947.35350.7785115.254929.1318</t>
-  </si>
-  <si>
-    <t>49.60190.7785</t>
-  </si>
-  <si>
-    <t>5.0324</t>
-  </si>
-  <si>
-    <t>125.256851.438248.9068</t>
-  </si>
-  <si>
-    <t>125.256851.438248.90681.1261</t>
-  </si>
-  <si>
-    <t>125.256851.438248.90681.1261117.972730.6873</t>
-  </si>
-  <si>
-    <t>51.43821.1261</t>
-  </si>
-  <si>
-    <t>5.9562</t>
-  </si>
-  <si>
-    <t>128.148454.368251.3262</t>
-  </si>
-  <si>
-    <t>128.148454.368251.32621.1021</t>
-  </si>
-  <si>
-    <t>128.148454.368251.32621.1021122.997933.0594</t>
-  </si>
-  <si>
-    <t>54.36821.1021</t>
-  </si>
-  <si>
-    <t>6.2697</t>
-  </si>
-  <si>
-    <t>136.102858.074253.9023</t>
-  </si>
-  <si>
-    <t>136.102858.074253.90233.3357</t>
-  </si>
-  <si>
-    <t>136.102858.074253.90233.3357145.598239.9539</t>
-  </si>
-  <si>
-    <t>58.07423.3357</t>
-  </si>
-  <si>
-    <t>5.792</t>
-  </si>
-  <si>
-    <t>140.290959.577256.5563</t>
-  </si>
-  <si>
-    <t>140.290959.577256.55630.47</t>
-  </si>
-  <si>
-    <t>140.290959.577256.55630.47145.848842.9151</t>
-  </si>
-  <si>
-    <t>59.57720.47</t>
-  </si>
-  <si>
-    <t>5.8331</t>
-  </si>
-  <si>
-    <t>142.798356.832960.2843</t>
-  </si>
-  <si>
-    <t>142.798356.832960.28430.0082</t>
-  </si>
-  <si>
-    <t>142.798356.832960.28430.0082151.322142.0893</t>
-  </si>
-  <si>
-    <t>56.83290.0082</t>
-  </si>
-  <si>
-    <t>6.0923</t>
-  </si>
-  <si>
-    <t>145.800457.769563.1738</t>
-  </si>
-  <si>
-    <t>145.800457.769563.17381.1904</t>
-  </si>
-  <si>
-    <t>145.800457.769563.17381.1904152.12441.7536</t>
-  </si>
-  <si>
-    <t>57.76951.1904</t>
-  </si>
-  <si>
-    <t>6.1935</t>
-  </si>
-  <si>
-    <t>151.64963.780565.8217</t>
-  </si>
-  <si>
-    <t>151.64963.780565.82173.4139</t>
-  </si>
-  <si>
-    <t>151.64963.780565.82173.4139165.746344.4564</t>
-  </si>
-  <si>
-    <t>63.78053.4139</t>
-  </si>
-  <si>
-    <t>6.6242</t>
-  </si>
-  <si>
-    <t>157.661269.016368.8617</t>
-  </si>
-  <si>
-    <t>157.661269.016368.86174.522</t>
-  </si>
-  <si>
-    <t>157.661269.016368.86174.522181.832347.1722</t>
-  </si>
-  <si>
-    <t>69.01634.522</t>
-  </si>
-  <si>
-    <t>6.4175</t>
-  </si>
-  <si>
-    <t>164.948772.992971.5137</t>
-  </si>
-  <si>
-    <t>164.948772.992971.51375.0276</t>
-  </si>
-  <si>
-    <t>164.948772.992971.51375.0276198.449548.8701</t>
-  </si>
-  <si>
-    <t>72.99295.0276</t>
-  </si>
-  <si>
-    <t>7.0301</t>
-  </si>
-  <si>
-    <t>172.866180.094274.4117</t>
-  </si>
-  <si>
-    <t>172.866180.094274.41174.1792</t>
-  </si>
-  <si>
-    <t>172.866180.094274.41174.1792211.484955.6357</t>
-  </si>
-  <si>
-    <t>80.09424.1792</t>
-  </si>
-  <si>
-    <t>7.4167</t>
-  </si>
-  <si>
-    <t>181.392384.885879.8574</t>
-  </si>
-  <si>
-    <t>181.392384.885879.85746.217</t>
-  </si>
-  <si>
-    <t>181.392384.885879.85746.217216.366365.81</t>
-  </si>
-  <si>
-    <t>84.88586.217</t>
-  </si>
-  <si>
-    <t>8.1306</t>
-  </si>
-  <si>
-    <t>181.545778.780383.7818</t>
-  </si>
-  <si>
-    <t>181.545778.780383.7818-3.2189</t>
-  </si>
-  <si>
-    <t>181.545778.780383.7818-3.2189175.662466.077</t>
-  </si>
-  <si>
-    <t>78.7803-3.2189</t>
-  </si>
-  <si>
-    <t>8.394</t>
-  </si>
-  <si>
-    <t>189.692979.660985.9989</t>
-  </si>
-  <si>
-    <t>189.692979.660985.99893.1879</t>
-  </si>
-  <si>
-    <t>189.692979.660985.99893.1879204.549374.5644</t>
-  </si>
-  <si>
-    <t>79.66093.1879</t>
-  </si>
-  <si>
-    <t>9.2747</t>
-  </si>
-  <si>
-    <t>196.069285.609490.1275</t>
-  </si>
-  <si>
-    <t>196.069285.609490.12755.3386</t>
-  </si>
-  <si>
-    <t>196.069285.609490.12755.3386233.476676.0089</t>
-  </si>
-  <si>
-    <t>85.60945.3386</t>
-  </si>
-  <si>
-    <t>9.6435</t>
-  </si>
-  <si>
-    <t>201.182287.671894.0106</t>
-  </si>
-  <si>
-    <t>201.182287.671894.01062.2458</t>
-  </si>
-  <si>
-    <t>201.182287.671894.01062.2458234.927884.0074</t>
-  </si>
-  <si>
-    <t>87.67182.2458</t>
-  </si>
-  <si>
-    <t>9.2503</t>
-  </si>
-  <si>
-    <t>204.384886.943796.0871</t>
-  </si>
-  <si>
-    <t>204.384886.943796.08710.0515</t>
-  </si>
-  <si>
-    <t>204.384886.943796.08710.0515234.668385.9922</t>
-  </si>
-  <si>
-    <t>86.94370.0515</t>
-  </si>
-  <si>
-    <t>9.3676</t>
-  </si>
-  <si>
-    <t>206.88992.11297.3577</t>
-  </si>
-  <si>
-    <t>206.88992.11297.35771.1629</t>
-  </si>
-  <si>
-    <t>206.88992.11297.35771.1629236.339694.3969</t>
-  </si>
-  <si>
-    <t>92.1121.1629</t>
-  </si>
-  <si>
-    <t>9.4319</t>
-  </si>
-  <si>
-    <t>209.888194.990998.0876</t>
-  </si>
-  <si>
-    <t>209.888194.990998.08761.7464</t>
-  </si>
-  <si>
-    <t>209.888194.990998.08761.7464229.9216101.57</t>
-  </si>
-  <si>
-    <t>94.99091.7464</t>
-  </si>
-  <si>
-    <t>9.3503</t>
-  </si>
-  <si>
-    <t>216.574399.114199.2401</t>
-  </si>
-  <si>
-    <t>216.574399.114199.24012.1239</t>
-  </si>
-  <si>
-    <t>216.574399.114199.24012.1239248.1651102.3943</t>
-  </si>
-  <si>
-    <t>99.11412.1239</t>
-  </si>
-  <si>
-    <t>9.7046</t>
-  </si>
-  <si>
-    <t>224.05101.7692102.4126</t>
-  </si>
-  <si>
-    <t>224.05101.7692102.41265.8949</t>
-  </si>
-  <si>
-    <t>224.05101.7692102.41265.8949266.7815105.075</t>
-  </si>
-  <si>
-    <t>101.76925.8949</t>
   </si>
 </sst>
 </file>
@@ -1398,80 +1026,74 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U7" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" t="s">
-        <v>115</v>
-      </c>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>150</v>
+      <c r="G7">
+        <v>4.8568</v>
+      </c>
+      <c r="H7">
+        <v>4.6556</v>
+      </c>
+      <c r="I7">
+        <v>4.9722</v>
+      </c>
+      <c r="J7">
+        <v>5.0324</v>
+      </c>
+      <c r="K7">
+        <v>5.9562</v>
+      </c>
+      <c r="L7">
+        <v>6.2697</v>
+      </c>
+      <c r="M7">
+        <v>5.792000000000001</v>
+      </c>
+      <c r="N7">
+        <v>5.8331</v>
+      </c>
+      <c r="O7">
+        <v>6.0923</v>
+      </c>
+      <c r="P7">
+        <v>6.1935</v>
+      </c>
+      <c r="Q7">
+        <v>6.6242</v>
+      </c>
+      <c r="R7">
+        <v>6.4175</v>
+      </c>
+      <c r="S7">
+        <v>7.0301</v>
+      </c>
+      <c r="T7">
+        <v>7.4167</v>
+      </c>
+      <c r="U7">
+        <v>8.130599999999999</v>
+      </c>
+      <c r="V7">
+        <v>8.394</v>
+      </c>
+      <c r="W7">
+        <v>9.274699999999999</v>
+      </c>
+      <c r="X7">
+        <v>9.6435</v>
+      </c>
+      <c r="Y7">
+        <v>9.250299999999999</v>
+      </c>
+      <c r="Z7">
+        <v>9.367599999999999</v>
+      </c>
+      <c r="AA7">
+        <v>9.431900000000001</v>
+      </c>
+      <c r="AB7">
+        <v>9.350300000000001</v>
+      </c>
+      <c r="AC7">
+        <v>9.704599999999999</v>
       </c>
       <c r="AD7">
         <v>1.354794165210821</v>
@@ -1838,7 +1460,7 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>2.734769150000002</v>
+        <v>2.734769149999998</v>
       </c>
       <c r="F12">
         <v>3.731282829999998</v>
@@ -2469,80 +2091,80 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" t="s">
-        <v>101</v>
-      </c>
-      <c r="T19" t="s">
-        <v>106</v>
-      </c>
-      <c r="U19" t="s">
-        <v>111</v>
-      </c>
-      <c r="V19" t="s">
-        <v>116</v>
-      </c>
-      <c r="W19" t="s">
-        <v>121</v>
-      </c>
-      <c r="X19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>151</v>
+      <c r="E19">
+        <v>187.41757311</v>
+      </c>
+      <c r="F19">
+        <v>195.34687434</v>
+      </c>
+      <c r="G19">
+        <v>203.2442</v>
+      </c>
+      <c r="H19">
+        <v>209.0379</v>
+      </c>
+      <c r="I19">
+        <v>217.4466</v>
+      </c>
+      <c r="J19">
+        <v>225.6018</v>
+      </c>
+      <c r="K19">
+        <v>233.8428</v>
+      </c>
+      <c r="L19">
+        <v>248.0793</v>
+      </c>
+      <c r="M19">
+        <v>256.4244</v>
+      </c>
+      <c r="N19">
+        <v>259.9155</v>
+      </c>
+      <c r="O19">
+        <v>266.7437</v>
+      </c>
+      <c r="P19">
+        <v>281.2512</v>
+      </c>
+      <c r="Q19">
+        <v>295.5392</v>
+      </c>
+      <c r="R19">
+        <v>309.4553</v>
+      </c>
+      <c r="S19">
+        <v>327.372</v>
+      </c>
+      <c r="T19">
+        <v>346.1355</v>
+      </c>
+      <c r="U19">
+        <v>344.1078</v>
+      </c>
+      <c r="V19">
+        <v>355.3527</v>
+      </c>
+      <c r="W19">
+        <v>371.8061</v>
+      </c>
+      <c r="X19">
+        <v>382.8646</v>
+      </c>
+      <c r="Y19">
+        <v>387.4156</v>
+      </c>
+      <c r="Z19">
+        <v>396.3587</v>
+      </c>
+      <c r="AA19">
+        <v>402.9666</v>
+      </c>
+      <c r="AB19">
+        <v>414.9285</v>
+      </c>
+      <c r="AC19">
+        <v>428.2318</v>
       </c>
       <c r="AD19">
         <v>356.4429954781211</v>
@@ -2650,80 +2272,80 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>92</v>
-      </c>
-      <c r="R21" t="s">
-        <v>97</v>
-      </c>
-      <c r="S21" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" t="s">
-        <v>107</v>
-      </c>
-      <c r="U21" t="s">
-        <v>112</v>
-      </c>
-      <c r="V21" t="s">
-        <v>117</v>
-      </c>
-      <c r="W21" t="s">
-        <v>122</v>
-      </c>
-      <c r="X21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>152</v>
+      <c r="E21">
+        <v>187.88957311</v>
+      </c>
+      <c r="F21">
+        <v>196.93887434</v>
+      </c>
+      <c r="G21">
+        <v>204.2855</v>
+      </c>
+      <c r="H21">
+        <v>209.841</v>
+      </c>
+      <c r="I21">
+        <v>218.2251</v>
+      </c>
+      <c r="J21">
+        <v>226.7279</v>
+      </c>
+      <c r="K21">
+        <v>234.9449</v>
+      </c>
+      <c r="L21">
+        <v>251.415</v>
+      </c>
+      <c r="M21">
+        <v>256.8944</v>
+      </c>
+      <c r="N21">
+        <v>259.9237</v>
+      </c>
+      <c r="O21">
+        <v>267.9341</v>
+      </c>
+      <c r="P21">
+        <v>284.6651000000001</v>
+      </c>
+      <c r="Q21">
+        <v>300.0612</v>
+      </c>
+      <c r="R21">
+        <v>314.4829</v>
+      </c>
+      <c r="S21">
+        <v>331.5511999999999</v>
+      </c>
+      <c r="T21">
+        <v>352.3525</v>
+      </c>
+      <c r="U21">
+        <v>340.8889</v>
+      </c>
+      <c r="V21">
+        <v>358.5406</v>
+      </c>
+      <c r="W21">
+        <v>377.1446999999999</v>
+      </c>
+      <c r="X21">
+        <v>385.1104</v>
+      </c>
+      <c r="Y21">
+        <v>387.4671</v>
+      </c>
+      <c r="Z21">
+        <v>397.5216</v>
+      </c>
+      <c r="AA21">
+        <v>404.713</v>
+      </c>
+      <c r="AB21">
+        <v>417.0524</v>
+      </c>
+      <c r="AC21">
+        <v>434.1267</v>
       </c>
       <c r="AD21">
         <v>362.3378954781211</v>
@@ -2831,80 +2453,80 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" t="s">
-        <v>78</v>
-      </c>
-      <c r="O23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>93</v>
-      </c>
-      <c r="R23" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" t="s">
-        <v>103</v>
-      </c>
-      <c r="T23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" t="s">
-        <v>118</v>
-      </c>
-      <c r="W23" t="s">
-        <v>123</v>
-      </c>
-      <c r="X23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>153</v>
+      <c r="E23">
+        <v>296.79758485</v>
+      </c>
+      <c r="F23">
+        <v>316.80301925</v>
+      </c>
+      <c r="G23">
+        <v>330.1708</v>
+      </c>
+      <c r="H23">
+        <v>340.3626</v>
+      </c>
+      <c r="I23">
+        <v>362.6118</v>
+      </c>
+      <c r="J23">
+        <v>375.3879</v>
+      </c>
+      <c r="K23">
+        <v>391.0022</v>
+      </c>
+      <c r="L23">
+        <v>436.9671</v>
+      </c>
+      <c r="M23">
+        <v>445.6583</v>
+      </c>
+      <c r="N23">
+        <v>453.3351</v>
+      </c>
+      <c r="O23">
+        <v>461.8117</v>
+      </c>
+      <c r="P23">
+        <v>494.8678000000001</v>
+      </c>
+      <c r="Q23">
+        <v>529.0657</v>
+      </c>
+      <c r="R23">
+        <v>561.8024999999999</v>
+      </c>
+      <c r="S23">
+        <v>598.6718</v>
+      </c>
+      <c r="T23">
+        <v>634.5288</v>
+      </c>
+      <c r="U23">
+        <v>582.6283</v>
+      </c>
+      <c r="V23">
+        <v>637.6542999999999</v>
+      </c>
+      <c r="W23">
+        <v>686.6301999999999</v>
+      </c>
+      <c r="X23">
+        <v>704.0455999999999</v>
+      </c>
+      <c r="Y23">
+        <v>708.1276</v>
+      </c>
+      <c r="Z23">
+        <v>728.2580999999999</v>
+      </c>
+      <c r="AA23">
+        <v>736.2046</v>
+      </c>
+      <c r="AB23">
+        <v>767.6118</v>
+      </c>
+      <c r="AC23">
+        <v>805.9832000000001</v>
       </c>
       <c r="AD23">
         <v>764.149575527121</v>
@@ -3012,80 +2634,80 @@
       <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>94</v>
-      </c>
-      <c r="R25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25" t="s">
-        <v>104</v>
-      </c>
-      <c r="T25" t="s">
-        <v>109</v>
-      </c>
-      <c r="U25" t="s">
-        <v>114</v>
-      </c>
-      <c r="V25" t="s">
-        <v>119</v>
-      </c>
-      <c r="W25" t="s">
-        <v>124</v>
-      </c>
-      <c r="X25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>154</v>
+      <c r="E25">
+        <v>41.97260713</v>
+      </c>
+      <c r="F25">
+        <v>44.26296716</v>
+      </c>
+      <c r="G25">
+        <v>46.1844</v>
+      </c>
+      <c r="H25">
+        <v>46.7961</v>
+      </c>
+      <c r="I25">
+        <v>50.3804</v>
+      </c>
+      <c r="J25">
+        <v>52.5643</v>
+      </c>
+      <c r="K25">
+        <v>55.4703</v>
+      </c>
+      <c r="L25">
+        <v>61.4099</v>
+      </c>
+      <c r="M25">
+        <v>60.0472</v>
+      </c>
+      <c r="N25">
+        <v>56.8411</v>
+      </c>
+      <c r="O25">
+        <v>58.9599</v>
+      </c>
+      <c r="P25">
+        <v>67.1944</v>
+      </c>
+      <c r="Q25">
+        <v>73.53830000000001</v>
+      </c>
+      <c r="R25">
+        <v>78.0205</v>
+      </c>
+      <c r="S25">
+        <v>84.2734</v>
+      </c>
+      <c r="T25">
+        <v>91.1028</v>
+      </c>
+      <c r="U25">
+        <v>75.56139999999999</v>
+      </c>
+      <c r="V25">
+        <v>82.8488</v>
+      </c>
+      <c r="W25">
+        <v>90.94799999999999</v>
+      </c>
+      <c r="X25">
+        <v>89.91760000000001</v>
+      </c>
+      <c r="Y25">
+        <v>86.99520000000001</v>
+      </c>
+      <c r="Z25">
+        <v>93.2749</v>
+      </c>
+      <c r="AA25">
+        <v>96.73729999999999</v>
+      </c>
+      <c r="AB25">
+        <v>101.238</v>
+      </c>
+      <c r="AC25">
+        <v>107.6641</v>
       </c>
       <c r="AD25">
         <v>117.1189770825331</v>
